--- a/products analysis/reference compounds analysis/fatacidref list and analysis.xlsx
+++ b/products analysis/reference compounds analysis/fatacidref list and analysis.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skutarna\Documents\MSc 2\NTA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Steven\Target Decoy\products analysis\reference compounds analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85C7113-0D48-4ABC-ACF4-68F6A439B0DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C12B17-523F-45BE-B4DF-4E87C1186D53}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="2835" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ref Find" sheetId="1" r:id="rId1"/>
     <sheet name="Calibration Testing" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="67">
   <si>
     <t>Sample 100 m/z</t>
   </si>
@@ -143,6 +144,93 @@
   </si>
   <si>
     <t>Cal Data as above plus high range linear fit</t>
+  </si>
+  <si>
+    <t>C24H41O9S</t>
+  </si>
+  <si>
+    <t>C32H63O4</t>
+  </si>
+  <si>
+    <t>C20H31O14S</t>
+  </si>
+  <si>
+    <t>C23H47O13</t>
+  </si>
+  <si>
+    <t>C25H27O13</t>
+  </si>
+  <si>
+    <t>C34H65O4</t>
+  </si>
+  <si>
+    <t>C36H69O3</t>
+  </si>
+  <si>
+    <t>C33H63O3</t>
+  </si>
+  <si>
+    <t>C25H43O9S</t>
+  </si>
+  <si>
+    <t>C24H49O9S</t>
+  </si>
+  <si>
+    <t>C24H49O10S</t>
+  </si>
+  <si>
+    <t>C29H45O8S</t>
+  </si>
+  <si>
+    <t>C33H41O7N</t>
+  </si>
+  <si>
+    <t>C36H71O4</t>
+  </si>
+  <si>
+    <t>C26H53O11S</t>
+  </si>
+  <si>
+    <t>C35H69O4N2</t>
+  </si>
+  <si>
+    <t>C32H56O10</t>
+  </si>
+  <si>
+    <t>C15H31O23N</t>
+  </si>
+  <si>
+    <t>C24H37O16S</t>
+  </si>
+  <si>
+    <t>C34H51O9N</t>
+  </si>
+  <si>
+    <t>C27H55O16</t>
+  </si>
+  <si>
+    <t>C17H35O24N</t>
+  </si>
+  <si>
+    <t>C27H58O16N</t>
+  </si>
+  <si>
+    <t>C38H49O10</t>
+  </si>
+  <si>
+    <t>C29H59O17</t>
+  </si>
+  <si>
+    <t>C34H49O12S</t>
+  </si>
+  <si>
+    <t>C34H48O15</t>
+  </si>
+  <si>
+    <t>C28H43O18S</t>
+  </si>
+  <si>
+    <t>Sample 103 mz</t>
   </si>
 </sst>
 </file>
@@ -708,36 +796,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -782,10 +840,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Ref Find'!$A$2:$A$30</c:f>
+              <c:f>'Ref Find'!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>129.0181</c:v>
                 </c:pt>
@@ -863,10 +921,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ref Find'!$D$2:$D$30</c:f>
+              <c:f>'Ref Find'!$D$2:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>-9.5489999999999995</c:v>
                 </c:pt>
@@ -946,6 +1004,311 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-94F7-4152-87CE-FFC804FC1BBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>500 to 900</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ref Find'!$A$28:$A$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>505.24682999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>507.47710999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>511.47205000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>513.30889999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>519.26207999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>527.14306999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>529.30389000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>531.30175999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>535.14464999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>537.48797999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>547.29633000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>549.52422999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>553.28412000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>563.28790000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>567.53510000000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>573.33037999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>581.52472</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>593.12987999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>600.38909999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>613.18011000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>617.35650999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>635.34893999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>637.15552000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>652.37591999999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>665.33258000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>679.375</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>681.29540999999995</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>696.29755</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>699.21704</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>713.23559999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>713.47320999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>717.48388999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>719.2011</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>723.40148999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>725.26239999999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>727.18695000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>729.17840000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>734.39480000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>737.59310000000005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>746.87468999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>746.97393999999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>762.31592000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>785.17160000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>785.25385000000006</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>788.97500000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>801.67499999999995</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>803.18206999999995</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>829.19809999999995</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>841.2731</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>851.49680000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>861.18349999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>871.29040999999995</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>875.23599999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>885.30010000000004</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>888.41409999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ref Find'!$D$28:$D$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>-1.6759999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.2839999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.2170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.6829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.4009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.7629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.4590000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.85599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.988</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.5880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.104</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.6879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.2050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.79</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.6859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.089</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.091</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.68100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.97399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.112</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.28799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.81299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.1379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.57099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3.33</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.74099999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5D0F-4AB8-9E37-A5C5CF2380FC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -964,6 +1327,7 @@
         <c:axId val="1409212223"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="300"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1026,6 +1390,8 @@
         <c:axId val="1721210559"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="-5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3551,16 +3917,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>36512</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>169862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>58737</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3592,16 +3958,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>148870</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>32453</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>72673</xdr:rowOff>
+      <xdr:rowOff>51506</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>359832</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>211665</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>105833</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3972,20 +4338,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H25"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4008,7 +4375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>129.0181</v>
       </c>
@@ -4032,7 +4399,7 @@
         <v>129.01933500000001</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>145.04949999999999</v>
       </c>
@@ -4056,7 +4423,7 @@
         <v>145.050635</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>171.0111</v>
       </c>
@@ -4080,7 +4447,7 @@
         <v>171.01214200000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>171.10159999999999</v>
       </c>
@@ -4104,7 +4471,7 @@
         <v>171.10267000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>187.09649999999999</v>
       </c>
@@ -4128,7 +4495,7 @@
         <v>187.09758500000001</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>189.07589999999999</v>
       </c>
@@ -4152,7 +4519,7 @@
         <v>189.07685000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>201.1123</v>
       </c>
@@ -4176,7 +4543,7 @@
         <v>201.113235</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>233.10239999999999</v>
       </c>
@@ -4200,7 +4567,7 @@
         <v>233.10306500000002</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>255.23249999999999</v>
       </c>
@@ -4224,7 +4591,7 @@
         <v>255.232955</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>283.2638</v>
       </c>
@@ -4248,7 +4615,7 @@
         <v>283.26425499999999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>301.12889999999999</v>
       </c>
@@ -4272,7 +4639,7 @@
         <v>301.12927999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>317.09100000000001</v>
       </c>
@@ -4296,7 +4663,7 @@
         <v>317.091182</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>325.18400000000003</v>
       </c>
@@ -4320,7 +4687,7 @@
         <v>325.18429199999997</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>326.18180000000001</v>
       </c>
@@ -4344,7 +4711,7 @@
         <v>326.18204399999996</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>339.19959999999998</v>
       </c>
@@ -4368,7 +4735,7 @@
         <v>339.19994199999996</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>361.11689999999999</v>
       </c>
@@ -4392,7 +4759,7 @@
         <v>361.11739699999998</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>369.21269999999998</v>
       </c>
@@ -4416,7 +4783,7 @@
         <v>369.21301</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>381.2312</v>
       </c>
@@ -4440,7 +4807,7 @@
         <v>381.23163699999998</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>401.0874</v>
       </c>
@@ -4464,7 +4831,7 @@
         <v>401.08780999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>415.2183</v>
       </c>
@@ -4488,7 +4855,7 @@
         <v>415.21848999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>459.24439999999998</v>
       </c>
@@ -4512,7 +4879,7 @@
         <v>459.24470499999995</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>503.27080000000001</v>
       </c>
@@ -4536,7 +4903,7 @@
         <v>503.27091999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>547.29700000000003</v>
       </c>
@@ -4560,7 +4927,7 @@
         <v>547.29713500000003</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>591.32360000000006</v>
       </c>
@@ -4583,6 +4950,654 @@
         <f t="shared" si="0"/>
         <v>591.32335</v>
       </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>505.24682999999999</v>
+      </c>
+      <c r="B28" s="1">
+        <v>19300000</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28">
+        <v>-1.6759999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>507.47710999999998</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2200000</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29">
+        <v>-2.2839999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>511.47205000000002</v>
+      </c>
+      <c r="B30" s="1">
+        <v>70700000</v>
+      </c>
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30">
+        <v>-2.2170000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>513.30889999999999</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1130000</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31">
+        <v>-2.6829999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>519.26207999999997</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4510000</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32">
+        <v>-2.4009999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>527.14306999999997</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2600000</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33">
+        <v>-1.7629999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>529.30389000000002</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2850000</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34">
+        <v>-2.4590000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>531.30175999999994</v>
+      </c>
+      <c r="B35" s="1">
+        <v>26100000</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35">
+        <v>-0.85599999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>535.14464999999996</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1400000</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36">
+        <v>-1.988</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>537.48797999999999</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1620000</v>
+      </c>
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37">
+        <v>-1.5880000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>547.29633000000001</v>
+      </c>
+      <c r="B38" s="1">
+        <v>5360000</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38">
+        <v>-1.46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>549.52422999999999</v>
+      </c>
+      <c r="B39" s="1">
+        <v>839000</v>
+      </c>
+      <c r="C39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>553.28412000000003</v>
+      </c>
+      <c r="B40" s="1">
+        <v>5720000</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>563.28790000000004</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2700000</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41">
+        <v>-1.6879999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>567.53510000000006</v>
+      </c>
+      <c r="B42" s="1">
+        <v>83600000</v>
+      </c>
+      <c r="C42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42">
+        <v>-1.2050000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>573.33037999999999</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1860000</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43">
+        <v>-1.79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>581.52472</v>
+      </c>
+      <c r="B44" s="1">
+        <v>649000</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44">
+        <v>-2.6859999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>593.12987999999996</v>
+      </c>
+      <c r="B45" s="1">
+        <v>62900000</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45">
+        <v>1.089</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>600.38909999999998</v>
+      </c>
+      <c r="B46" s="1">
+        <v>3850000</v>
+      </c>
+      <c r="C46" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46">
+        <v>2.0049999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>613.18011000000001</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1760000</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47">
+        <v>-1.091</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>617.35650999999996</v>
+      </c>
+      <c r="B48" s="1">
+        <v>981000</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48">
+        <v>-0.68100000000000005</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>635.34893999999997</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1790000</v>
+      </c>
+      <c r="C49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49">
+        <v>-0.97399999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>637.15552000000002</v>
+      </c>
+      <c r="B50" s="1">
+        <v>11600000</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>652.37591999999995</v>
+      </c>
+      <c r="B51" s="1">
+        <v>11500000</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51">
+        <v>-0.28799999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>665.33258000000001</v>
+      </c>
+      <c r="B52" s="1">
+        <v>451000</v>
+      </c>
+      <c r="C52" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52">
+        <v>-0.81299999999999994</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>679.375</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1370000</v>
+      </c>
+      <c r="C53" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53">
+        <v>-1.1379999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>681.29540999999995</v>
+      </c>
+      <c r="B54" s="1">
+        <v>3390000</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54">
+        <v>0.57099999999999995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>696.29755</v>
+      </c>
+      <c r="B55" s="1">
+        <v>359000</v>
+      </c>
+      <c r="C55" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55">
+        <v>-3.33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>699.21704</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1270000</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56">
+        <v>-0.74099999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>713.23559999999998</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1010000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>713.47320999999999</v>
+      </c>
+      <c r="B58" s="1">
+        <v>809000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>717.48388999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>719.2011</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>723.40148999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>725.26239999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>727.18695000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>729.17840000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>734.39480000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>737.59310000000005</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>746.87468999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>746.97393999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>762.31592000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>785.17160000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>785.25385000000006</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>788.97500000000002</v>
+      </c>
+      <c r="B72" s="1">
+        <v>35900000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>801.67499999999995</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>803.18206999999995</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>829.19809999999995</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>841.2731</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>851.49680000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>861.18349999999998</v>
+      </c>
+      <c r="B78" s="1">
+        <v>1660000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>871.29040999999995</v>
+      </c>
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>875.23599999999999</v>
+      </c>
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>885.30010000000004</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>888.41409999999996</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="1"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="1"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="1"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="1"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="1"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" s="1"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="1"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="1"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="1"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="1"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="1"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="1"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="1"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="1"/>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112" s="1"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D25">
@@ -4599,18 +5614,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="Y29" sqref="Y29"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="9" max="9" width="16.7265625" customWidth="1"/>
-    <col min="16" max="16" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -4651,7 +5666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>129.01933500000001</v>
       </c>
@@ -4696,7 +5711,7 @@
         <v>-0.12184534996883156</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>145.050635</v>
       </c>
@@ -4741,7 +5756,7 @@
         <v>0.15498929040151532</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>171.01214200000001</v>
       </c>
@@ -4786,7 +5801,7 @@
         <v>7.6547126007468727E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>171.10267000000002</v>
       </c>
@@ -4831,7 +5846,7 @@
         <v>-3.8939041739922006E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>187.09758500000001</v>
       </c>
@@ -4876,7 +5891,7 @@
         <v>-8.7672638872092465E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>189.07685000000001</v>
       </c>
@@ -4921,7 +5936,7 @@
         <v>-9.5593389707079965E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>201.113235</v>
       </c>
@@ -4966,7 +5981,7 @@
         <v>-5.655174312743072E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>233.10306500000002</v>
       </c>
@@ -5011,7 +6026,7 @@
         <v>9.0898667435954345E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>255.232955</v>
       </c>
@@ -5056,7 +6071,7 @@
         <v>0.71615024793915361</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>283.26425499999999</v>
       </c>
@@ -5101,7 +6116,7 @@
         <v>0.12029327523814945</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>301.12927999999999</v>
       </c>
@@ -5146,7 +6161,7 @@
         <v>2.2801381220253682E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>317.091182</v>
       </c>
@@ -5191,7 +6206,7 @@
         <v>-0.16158187004241817</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>325.18429199999997</v>
       </c>
@@ -5236,7 +6251,7 @@
         <v>-0.33616264964346831</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>326.18204399999996</v>
       </c>
@@ -5281,7 +6296,7 @@
         <v>0.10628512790940244</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>339.19994199999996</v>
       </c>
@@ -5326,7 +6341,7 @@
         <v>-0.48785246011252115</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>361.11739699999998</v>
       </c>
@@ -5371,7 +6386,7 @@
         <v>-0.50018833276988062</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>369.21301</v>
       </c>
@@ -5416,7 +6431,7 @@
         <v>3.8195252397560935E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>381.23163699999998</v>
       </c>
@@ -5461,7 +6476,7 @@
         <v>-0.19393792016716049</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>401.08780999999999</v>
       </c>
@@ -5486,7 +6501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>415.21848999999997</v>
       </c>
@@ -5511,7 +6526,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>459.24470499999995</v>
       </c>
@@ -5529,22 +6544,22 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>503.27091999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>547.29713500000003</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>591.32335</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>0</v>
       </c>
@@ -5558,7 +6573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>550</v>
       </c>

--- a/products analysis/reference compounds analysis/fatacidref list and analysis.xlsx
+++ b/products analysis/reference compounds analysis/fatacidref list and analysis.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Steven\Target Decoy\products analysis\reference compounds analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C12B17-523F-45BE-B4DF-4E87C1186D53}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADF7F14-366B-4053-8C4A-76E1D12FDD86}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="2835" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ref Find" sheetId="1" r:id="rId1"/>
     <sheet name="Calibration Testing" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="106">
   <si>
     <t>Sample 100 m/z</t>
   </si>
@@ -131,9 +130,6 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>Theoretical m/z +e</t>
-  </si>
-  <si>
     <t>Raw Data</t>
   </si>
   <si>
@@ -231,13 +227,133 @@
   </si>
   <si>
     <t>Sample 103 mz</t>
+  </si>
+  <si>
+    <t>C25H45O23</t>
+  </si>
+  <si>
+    <t>C34H39O15S</t>
+  </si>
+  <si>
+    <t>C31H63O18</t>
+  </si>
+  <si>
+    <t>C38H45O12S</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t># Masses</t>
+  </si>
+  <si>
+    <t>Minutes</t>
+  </si>
+  <si>
+    <t>C35H35O17</t>
+  </si>
+  <si>
+    <t>C20H41O28</t>
+  </si>
+  <si>
+    <t>C44H81O8</t>
+  </si>
+  <si>
+    <t>C32H62O18</t>
+  </si>
+  <si>
+    <t>C11H23O35S</t>
+  </si>
+  <si>
+    <t>C31H54O21</t>
+  </si>
+  <si>
+    <t>Time (mins only)</t>
+  </si>
+  <si>
+    <t>slope</t>
+  </si>
+  <si>
+    <t>y-int</t>
+  </si>
+  <si>
+    <t>Total masses</t>
+  </si>
+  <si>
+    <t>Pred. mins</t>
+  </si>
+  <si>
+    <t>Total samples</t>
+  </si>
+  <si>
+    <t>End time</t>
+  </si>
+  <si>
+    <t>C32H49O20S</t>
+  </si>
+  <si>
+    <t>C25H39O27N</t>
+  </si>
+  <si>
+    <t>C23H17O31</t>
+  </si>
+  <si>
+    <t>C54H89O4</t>
+  </si>
+  <si>
+    <t>C40H35O18</t>
+  </si>
+  <si>
+    <t>C27H43O28N</t>
+  </si>
+  <si>
+    <t>C49H71O12</t>
+  </si>
+  <si>
+    <t>C24H45O33</t>
+  </si>
+  <si>
+    <t>C36H55O22S</t>
+  </si>
+  <si>
+    <t>C26H51O32</t>
+  </si>
+  <si>
+    <t>C44H53O17S</t>
+  </si>
+  <si>
+    <t>C46H64O17</t>
+  </si>
+  <si>
+    <t>Pubchem Match?</t>
+  </si>
+  <si>
+    <t>Adjusted</t>
+  </si>
+  <si>
+    <t>Predicted by samples LOBF</t>
+  </si>
+  <si>
+    <t>intercept</t>
+  </si>
+  <si>
+    <t>LOBF</t>
+  </si>
+  <si>
+    <t>m/z</t>
+  </si>
+  <si>
+    <t>Distance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,6 +490,26 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -560,7 +696,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -675,6 +811,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -720,10 +865,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -769,7 +920,18 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1008,10 +1170,10 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>500 to 900</c:v>
+            <c:v>500 to 900 filtered</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1022,25 +1184,73 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.22601931843539799"/>
+                  <c:y val="-8.2115168705168134E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Ref Find'!$A$28:$A$82</c:f>
+              <c:f>'Ref Find'!$G$28:$G$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>505.24682999999999</c:v>
                 </c:pt>
@@ -1057,164 +1267,77 @@
                   <c:v>519.26207999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>527.14306999999997</c:v>
+                  <c:v>529.30389000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>529.30389000000002</c:v>
+                  <c:v>531.30175999999994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>531.30175999999994</c:v>
+                  <c:v>535.14464999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>535.14464999999996</c:v>
+                  <c:v>537.48797999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>537.48797999999999</c:v>
+                  <c:v>549.52422999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>547.29633000000001</c:v>
+                  <c:v>553.28412000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>549.52422999999999</c:v>
+                  <c:v>563.28790000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>553.28412000000003</c:v>
+                  <c:v>567.53510000000006</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>563.28790000000004</c:v>
+                  <c:v>573.33037999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>567.53510000000006</c:v>
+                  <c:v>581.52472</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>573.33037999999999</c:v>
+                  <c:v>613.18011000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>581.52472</c:v>
+                  <c:v>665.33258000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>593.12987999999996</c:v>
+                  <c:v>679.375</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>600.38909999999998</c:v>
+                  <c:v>681.29540999999995</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>613.18011000000001</c:v>
+                  <c:v>719.2011</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>617.35650999999996</c:v>
+                  <c:v>723.40148999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>635.34893999999997</c:v>
+                  <c:v>725.26239999999996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>637.15552000000002</c:v>
+                  <c:v>727.18695000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>652.37591999999995</c:v>
+                  <c:v>737.59310000000005</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>665.33258000000001</c:v>
+                  <c:v>801.67499999999995</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>679.375</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>681.29540999999995</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>696.29755</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>699.21704</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>713.23559999999998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>713.47320999999999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>717.48388999999997</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>719.2011</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>723.40148999999997</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>725.26239999999996</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>727.18695000000002</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>729.17840000000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>734.39480000000003</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>737.59310000000005</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>746.87468999999999</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>746.97393999999997</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>762.31592000000001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>785.17160000000001</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>785.25385000000006</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>788.97500000000002</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>801.67499999999995</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>803.18206999999995</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>829.19809999999995</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>841.2731</c:v>
-                </c:pt>
-                <c:pt idx="49">
                   <c:v>851.49680000000001</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>861.18349999999998</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>871.29040999999995</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>875.23599999999999</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>885.30010000000004</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>888.41409999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ref Find'!$D$28:$D$82</c:f>
+              <c:f>'Ref Find'!$H$28:$H$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>-1.6759999999999999</c:v>
                 </c:pt>
@@ -1231,76 +1354,67 @@
                   <c:v>-2.4009999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.7629999999999999</c:v>
+                  <c:v>-2.4590000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2.4590000000000001</c:v>
+                  <c:v>-0.85599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.85599999999999998</c:v>
+                  <c:v>-1.988</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.988</c:v>
+                  <c:v>-1.5880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.5880000000000001</c:v>
+                  <c:v>-1.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.46</c:v>
+                  <c:v>0.104</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.8</c:v>
+                  <c:v>-1.6879999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.104</c:v>
+                  <c:v>-1.2050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.6879999999999999</c:v>
+                  <c:v>-1.79</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.2050000000000001</c:v>
+                  <c:v>-2.6859999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.79</c:v>
+                  <c:v>-1.091</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-2.6859999999999999</c:v>
+                  <c:v>-0.81299999999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.089</c:v>
+                  <c:v>-1.1379999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.0049999999999999</c:v>
+                  <c:v>0.57099999999999995</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1.091</c:v>
+                  <c:v>-0.57599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.68100000000000005</c:v>
+                  <c:v>-0.67500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.97399999999999998</c:v>
+                  <c:v>-1.821</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.112</c:v>
+                  <c:v>-1.3380000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.28799999999999998</c:v>
+                  <c:v>-0.80300000000000005</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.81299999999999994</c:v>
+                  <c:v>-2.0390000000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1.1379999999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.57099999999999995</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-3.33</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-0.74099999999999999</c:v>
+                  <c:v>1.996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1308,7 +1422,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5D0F-4AB8-9E37-A5C5CF2380FC}"/>
+              <c16:uniqueId val="{00000000-6A31-4452-ABE6-132C404C3F62}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1516,6 +1630,597 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>mass results</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.1276465441819773E-2"/>
+                  <c:y val="0.20479913969087196"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ref Find'!$H$85:$H$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ref Find'!$C$85:$C$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>543</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>698</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>983</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E66F-43E5-B531-972B936A792A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1428596112"/>
+        <c:axId val="1372550224"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>sample</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.14305424321959756"/>
+                  <c:y val="4.0265018955963836E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ref Find'!$H$85:$H$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ref Find'!$D$85:$D$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E66F-43E5-B531-972B936A792A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1443326080"/>
+        <c:axId val="1443328576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1428596112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1372550224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1372550224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1428596112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1443328576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1443326080"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1443326080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1443328576"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -1592,7 +2297,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Calibration Testing'!$C$1</c:f>
+              <c:f>'Calibration Testing'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1627,82 +2332,115 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Calibration Testing'!$C$2:$C$25</c:f>
+              <c:f>'Calibration Testing'!$C$2:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>129.01808650000001</c:v>
+                  <c:v>129.01933500000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>145.04945960000001</c:v>
+                  <c:v>145.050635</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>171.01105670000001</c:v>
+                  <c:v>171.01214200000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>171.10154779999999</c:v>
+                  <c:v>171.10267000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>187.09654409999999</c:v>
+                  <c:v>187.09758500000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>189.07585990000001</c:v>
+                  <c:v>189.07685000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>201.11232630000001</c:v>
+                  <c:v>201.113235</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>233.1026291</c:v>
+                  <c:v>233.10306500000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>255.2325439</c:v>
+                  <c:v>255.232955</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>283.26380569999998</c:v>
+                  <c:v>283.26425499999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>317.09088000000003</c:v>
+                  <c:v>317.091182</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>325.1837883</c:v>
+                  <c:v>325.18429199999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>326.1818007</c:v>
+                  <c:v>326.18204399999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>339.19934160000003</c:v>
+                  <c:v>339.19994199999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>361.11690320000002</c:v>
+                  <c:v>361.11739699999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>369.2126993</c:v>
+                  <c:v>369.21301</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>381.23106949999999</c:v>
+                  <c:v>381.23163699999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>401.08731289999997</c:v>
+                  <c:v>401.08780999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>415.21826090000002</c:v>
+                  <c:v>415.21848999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>459.24449390000001</c:v>
+                  <c:v>459.24470499999995</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>503.27086539999999</c:v>
+                  <c:v>503.27091999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>507.47826999999995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>511.473184</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>529.30519600000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>531.30221999999992</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>537.48883499999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>549.52521999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>567.53578499999992</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>573.331412</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>581.52628299999992</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>681.295027</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>801.67663499999992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Calibration Testing'!$D$2:$D$25</c:f>
+              <c:f>'Calibration Testing'!$E$2:$E$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>-9.6768441722525544</c:v>
                 </c:pt>
@@ -1765,6 +2503,39 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>-0.10849027398319072</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.1127998248146218</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.197521236985043</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.3275796447551409</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.24016462782322281</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.0323935379929525</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.649423842571883</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.82144599902473903</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.9205296918705279</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.1144810112068735</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.56730195388688698</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.2576142996701383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1781,7 +2552,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Calibration Testing'!$F$1</c:f>
+              <c:f>'Calibration Testing'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1816,79 +2587,109 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Calibration Testing'!$F$2:$F$25</c:f>
+              <c:f>'Calibration Testing'!$G$2:$G$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>129.01933920522799</c:v>
+                  <c:v>129.01933500000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>145.05063874520201</c:v>
+                  <c:v>145.050635</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>171.012159180569</c:v>
+                  <c:v>171.01214200000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>171.102672900817</c:v>
+                  <c:v>171.10267000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>187.09757072858599</c:v>
+                  <c:v>187.09758500000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>189.07684607527801</c:v>
+                  <c:v>189.07685000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>201.11322662904701</c:v>
+                  <c:v>201.113235</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>233.10308249532301</c:v>
+                  <c:v>233.10306500000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>255.23288694192399</c:v>
+                  <c:v>255.232955</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>283.26408177341</c:v>
+                  <c:v>283.26425499999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>317.09116637818499</c:v>
+                  <c:v>317.091182</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>325.18420587249199</c:v>
+                  <c:v>325.18429199999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>326.18212407633501</c:v>
+                  <c:v>326.18204399999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>339.199730777789</c:v>
+                  <c:v>339.19994199999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>369.21315026200301</c:v>
+                  <c:v>369.21301</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>381.23147716725299</c:v>
+                  <c:v>381.23163699999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>401.087666059951</c:v>
+                  <c:v>401.08780999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>415.21875815311699</c:v>
+                  <c:v>415.21848999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>459.244950692261</c:v>
+                  <c:v>459.24470499999995</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>503.271450915294</c:v>
+                  <c:v>503.27091999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>507.47826999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>529.30519600000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>531.30221999999992</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>537.48883499999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>549.52521999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>567.53578499999992</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>573.331412</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>581.52628299999992</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>681.295027</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>801.67663499999992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Calibration Testing'!$G$2:$G$25</c:f>
+              <c:f>'Calibration Testing'!$I$2:$I$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>3.259378124175575E-2</c:v>
                 </c:pt>
@@ -1948,6 +2749,36 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1.0549294086119116</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.85047976528380953</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.6225043822543552</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.5687827918976676</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.9443510662897801E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.57031049454256455</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.6498268651845035</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.2242482886447559</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.20824510199291063</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.6043122328001855</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-4.7151180815911242E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1999,7 +2830,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Calibration Testing'!$C$30:$C$31</c:f>
+              <c:f>'Calibration Testing'!$B$61:$B$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2007,14 +2838,14 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>550</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Calibration Testing'!$D$30:$D$31</c:f>
+              <c:f>'Calibration Testing'!$C$55:$C$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2074,7 +2905,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Calibration Testing'!$F$30:$F$31</c:f>
+              <c:f>'Calibration Testing'!$E$55:$E$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2082,14 +2913,14 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>550</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Calibration Testing'!$G$30:$G$31</c:f>
+              <c:f>'Calibration Testing'!$F$61:$F$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2114,7 +2945,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Calibration Testing'!$M$1</c:f>
+              <c:f>'Calibration Testing'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2147,10 +2978,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Calibration Testing'!$L$2:$L$19</c:f>
+              <c:f>'Calibration Testing'!$K$2:$K$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>129.01933500000001</c:v>
                 </c:pt>
@@ -2204,16 +3035,28 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>459.24470499999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>529.30519600000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>549.52521999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>567.53578499999992</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>573.331412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Calibration Testing'!$N$2:$N$19</c:f>
+              <c:f>'Calibration Testing'!$M$2:$M$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>-0.12184534996883156</c:v>
                 </c:pt>
@@ -2267,6 +3110,18 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.82283402930289495</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.85319396717092755</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.20508612879523835</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2975393261778334</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.8488981936513661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2283,7 +3138,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Calibration Testing'!$Q$1</c:f>
+              <c:f>'Calibration Testing'!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2316,10 +3171,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Calibration Testing'!$P$2:$P$19</c:f>
+              <c:f>'Calibration Testing'!$O$2:$O$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>129.01933500000001</c:v>
                 </c:pt>
@@ -2373,16 +3228,28 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>459.24470499999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>529.30519600000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>549.52521999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>567.53578499999992</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>573.331412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Calibration Testing'!$R$2:$R$19</c:f>
+              <c:f>'Calibration Testing'!$Q$2:$Q$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>-0.12184534996883156</c:v>
                 </c:pt>
@@ -2436,6 +3303,18 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>-0.19393792016716049</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.6504557495717762</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.8363124444642569</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.1911143186942474</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.2175655708718045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2462,7 +3341,7 @@
         <c:axId val="1943780399"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="550"/>
+          <c:max val="900"/>
           <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2488,12 +3367,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2501,14 +3377,26 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-CA"/>
+                  <a:rPr lang="en-CA" sz="1400" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Mass</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:rPr lang="en-CA" sz="1400" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> to Charge m/z</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-CA"/>
+                <a:endParaRPr lang="en-CA" sz="1400" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2525,12 +3413,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2563,12 +3448,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2586,7 +3468,7 @@
         <c:axId val="1643439935"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2"/>
+          <c:max val="4"/>
           <c:min val="-10"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2612,12 +3494,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2625,7 +3504,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-CA"/>
+                  <a:rPr lang="en-CA" sz="1400" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Mass Error (ppm)</a:t>
                 </a:r>
               </a:p>
@@ -2644,12 +3527,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2682,12 +3562,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2709,53 +3586,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:legendEntry>
-        <c:idx val="2"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="3"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="6"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="7"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2797,7 +3627,6 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -2842,6 +3671,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3913,20 +4782,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>169862</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>131762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3951,6 +5336,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A695755-36C2-4433-BCF3-27D13833B95C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3958,16 +5379,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>32453</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>51506</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>42331</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>211665</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>105833</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3993,52 +5414,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.74804</cdr:x>
-      <cdr:y>0.2282</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.87691</cdr:x>
-      <cdr:y>0.31413</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE4EAF28-AB2E-4ED4-A77E-C2C982390664}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="8771247" y="1533923"/>
-          <a:ext cx="1511081" cy="577606"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100"/>
-            <a:t>± 1 ppm</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4338,10 +5713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:T109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="H81" sqref="H81"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A2:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4350,6 +5725,9 @@
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -4735,7 +6113,7 @@
         <v>339.19994199999996</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>361.11689999999999</v>
       </c>
@@ -4759,7 +6137,7 @@
         <v>361.11739699999998</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>369.21269999999998</v>
       </c>
@@ -4783,7 +6161,7 @@
         <v>369.21301</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>381.2312</v>
       </c>
@@ -4807,7 +6185,7 @@
         <v>381.23163699999998</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>401.0874</v>
       </c>
@@ -4831,7 +6209,7 @@
         <v>401.08780999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>415.2183</v>
       </c>
@@ -4855,7 +6233,7 @@
         <v>415.21848999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>459.24439999999998</v>
       </c>
@@ -4879,7 +6257,7 @@
         <v>459.24470499999995</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>503.27080000000001</v>
       </c>
@@ -4903,7 +6281,7 @@
         <v>503.27091999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>547.29700000000003</v>
       </c>
@@ -4927,7 +6305,7 @@
         <v>547.29713500000003</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>591.32360000000006</v>
       </c>
@@ -4951,9 +6329,9 @@
         <v>591.32335</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
@@ -4964,8 +6342,32 @@
       <c r="D27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>505.24682999999999</v>
       </c>
@@ -4973,13 +6375,47 @@
         <v>19300000</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28">
         <v>-1.6759999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28">
+        <v>505.24682999999999</v>
+      </c>
+      <c r="H28">
+        <v>-1.6759999999999999</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="4">
+        <v>505.24713200000002</v>
+      </c>
+      <c r="K28">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="L28">
+        <f>J28+K28</f>
+        <v>505.247682</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="4">
+        <f>G28*$G$56+$G$57</f>
+        <v>-2.0206449447800003</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="4">
+        <f>ABS(H28-O28)</f>
+        <v>0.34464494478000041</v>
+      </c>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>507.47710999999998</v>
       </c>
@@ -4987,13 +6423,43 @@
         <v>2200000</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29">
         <v>-2.2839999999999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29">
+        <v>507.47710999999998</v>
+      </c>
+      <c r="H29">
+        <v>-2.2839999999999998</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="4">
+        <v>507.47771999999998</v>
+      </c>
+      <c r="K29">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="L29">
+        <f t="shared" ref="L29:L53" si="2">J29+K29</f>
+        <v>507.47826999999995</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="4">
+        <f>G29*$G$56+$G$57</f>
+        <v>-2.0069644072600004</v>
+      </c>
+      <c r="Q29" s="4">
+        <f>ABS(H29-O29)</f>
+        <v>0.27703559273999945</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>511.47205000000002</v>
       </c>
@@ -5001,13 +6467,43 @@
         <v>70700000</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D30">
         <v>-2.2170000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30">
+        <v>511.47205000000002</v>
+      </c>
+      <c r="H30">
+        <v>-2.2170000000000001</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="4">
+        <v>511.47263400000003</v>
+      </c>
+      <c r="K30">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="2"/>
+        <v>511.473184</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="4">
+        <f>G30*$G$56+$G$57</f>
+        <v>-1.9824594453000004</v>
+      </c>
+      <c r="Q30" s="4">
+        <f>ABS(H30-O30)</f>
+        <v>0.23454055469999968</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>513.30889999999999</v>
       </c>
@@ -5015,13 +6511,43 @@
         <v>1130000</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31">
         <v>-2.6829999999999998</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31">
+        <v>513.30889999999999</v>
+      </c>
+      <c r="H31">
+        <v>-2.6829999999999998</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="4">
+        <v>513.30973100000006</v>
+      </c>
+      <c r="K31">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="2"/>
+        <v>513.31028100000003</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="4">
+        <f>G31*$G$56+$G$57</f>
+        <v>-1.9711922074000006</v>
+      </c>
+      <c r="Q31" s="4">
+        <f>ABS(H31-O31)</f>
+        <v>0.71180779259999927</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>519.26207999999997</v>
       </c>
@@ -5029,13 +6555,43 @@
         <v>4510000</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D32">
         <v>-2.4009999999999998</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32">
+        <v>519.26207999999997</v>
+      </c>
+      <c r="H32">
+        <v>-2.4009999999999998</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="4">
+        <v>519.26278200000002</v>
+      </c>
+      <c r="K32">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="2"/>
+        <v>519.26333199999999</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="4">
+        <f>G32*$G$56+$G$57</f>
+        <v>-1.9346754012800007</v>
+      </c>
+      <c r="Q32" s="4">
+        <f>ABS(H32-O32)</f>
+        <v>0.46632459871999909</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>527.14306999999997</v>
       </c>
@@ -5043,13 +6599,43 @@
         <v>2600000</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D33">
         <v>-1.7629999999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33">
+        <v>529.30389000000002</v>
+      </c>
+      <c r="H33">
+        <v>-2.4590000000000001</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="4">
+        <v>529.30464600000005</v>
+      </c>
+      <c r="K33">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="2"/>
+        <v>529.30519600000002</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="4">
+        <f>G33*$G$56+$G$57</f>
+        <v>-1.8730789387400004</v>
+      </c>
+      <c r="Q33" s="4">
+        <f>ABS(H33-O33)</f>
+        <v>0.58592106125999965</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>529.30389000000002</v>
       </c>
@@ -5057,13 +6643,43 @@
         <v>2850000</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D34">
         <v>-2.4590000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34">
+        <v>531.30175999999994</v>
+      </c>
+      <c r="H34">
+        <v>-0.85599999999999998</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="4">
+        <v>531.30166999999994</v>
+      </c>
+      <c r="K34">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="2"/>
+        <v>531.30221999999992</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="4">
+        <f>G34*$G$56+$G$57</f>
+        <v>-1.8608240041600008</v>
+      </c>
+      <c r="Q34" s="4">
+        <f>ABS(H34-O34)</f>
+        <v>1.0048240041600009</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>531.30175999999994</v>
       </c>
@@ -5071,13 +6687,43 @@
         <v>26100000</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D35">
         <v>-0.85599999999999998</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35">
+        <v>535.14464999999996</v>
+      </c>
+      <c r="H35">
+        <v>-1.988</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="4">
+        <v>535.14517000000001</v>
+      </c>
+      <c r="K35">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="2"/>
+        <v>535.14571999999998</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="4">
+        <f>G35*$G$56+$G$57</f>
+        <v>-1.8372517169000004</v>
+      </c>
+      <c r="Q35" s="4">
+        <f>ABS(H35-O35)</f>
+        <v>0.15074828309999955</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>535.14464999999996</v>
       </c>
@@ -5085,13 +6731,43 @@
         <v>1400000</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D36">
         <v>-1.988</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36">
+        <v>537.48797999999999</v>
+      </c>
+      <c r="H36">
+        <v>-1.5880000000000001</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="4">
+        <v>537.48828500000002</v>
+      </c>
+      <c r="K36">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="2"/>
+        <v>537.48883499999999</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="4">
+        <f>G36*$G$56+$G$57</f>
+        <v>-1.8228777306800006</v>
+      </c>
+      <c r="Q36" s="4">
+        <f>ABS(H36-O36)</f>
+        <v>0.23487773068000051</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>537.48797999999999</v>
       </c>
@@ -5099,13 +6775,43 @@
         <v>1620000</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D37">
         <v>-1.5880000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>43</v>
+      </c>
+      <c r="G37">
+        <v>549.52422999999999</v>
+      </c>
+      <c r="H37">
+        <v>-1.8</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="4">
+        <v>549.52467000000001</v>
+      </c>
+      <c r="K37">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="2"/>
+        <v>549.52521999999999</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="4">
+        <f>G37*$G$56+$G$57</f>
+        <v>-1.7490473731800003</v>
+      </c>
+      <c r="Q37" s="4">
+        <f>ABS(H37-O37)</f>
+        <v>5.0952626819999791E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>547.29633000000001</v>
       </c>
@@ -5118,8 +6824,35 @@
       <c r="D38">
         <v>-1.46</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38">
+        <v>553.28412000000003</v>
+      </c>
+      <c r="H38">
+        <v>0.104</v>
+      </c>
+      <c r="J38" s="4">
+        <v>553.28351699999996</v>
+      </c>
+      <c r="K38">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="2"/>
+        <v>553.28406699999994</v>
+      </c>
+      <c r="O38" s="4">
+        <f>G38*$G$56+$G$57</f>
+        <v>-1.7259842079200003</v>
+      </c>
+      <c r="Q38" s="4">
+        <f>ABS(H38-O38)</f>
+        <v>1.8299842079200004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>549.52422999999999</v>
       </c>
@@ -5127,13 +6860,40 @@
         <v>839000</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D39">
         <v>-1.8</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39">
+        <v>563.28790000000004</v>
+      </c>
+      <c r="H39">
+        <v>-1.6879999999999999</v>
+      </c>
+      <c r="J39" s="4">
+        <v>563.28830300000004</v>
+      </c>
+      <c r="K39">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="2"/>
+        <v>563.28885300000002</v>
+      </c>
+      <c r="O39" s="4">
+        <f>G39*$G$56+$G$57</f>
+        <v>-1.6646210214000003</v>
+      </c>
+      <c r="Q39" s="4">
+        <f>ABS(H39-O39)</f>
+        <v>2.33789785999996E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>553.28412000000003</v>
       </c>
@@ -5141,13 +6901,43 @@
         <v>5720000</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D40">
         <v>0.104</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>50</v>
+      </c>
+      <c r="G40">
+        <v>567.53510000000006</v>
+      </c>
+      <c r="H40">
+        <v>-1.2050000000000001</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="4">
+        <v>567.53523499999994</v>
+      </c>
+      <c r="K40">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="2"/>
+        <v>567.53578499999992</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="4">
+        <f>G40*$G$56+$G$57</f>
+        <v>-1.6385686966000002</v>
+      </c>
+      <c r="Q40" s="4">
+        <f>ABS(H40-O40)</f>
+        <v>0.43356869660000008</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>563.28790000000004</v>
       </c>
@@ -5155,13 +6945,43 @@
         <v>2700000</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D41">
         <v>-1.6879999999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G41">
+        <v>573.33037999999999</v>
+      </c>
+      <c r="H41">
+        <v>-1.79</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="4">
+        <v>573.33086200000002</v>
+      </c>
+      <c r="K41">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="2"/>
+        <v>573.331412</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="4">
+        <f>G41*$G$56+$G$57</f>
+        <v>-1.6030204490800006</v>
+      </c>
+      <c r="Q41" s="4">
+        <f>ABS(H41-O41)</f>
+        <v>0.1869795509199994</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>567.53510000000006</v>
       </c>
@@ -5169,13 +6989,40 @@
         <v>83600000</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D42">
         <v>-1.2050000000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F42" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G42">
+        <v>581.52472</v>
+      </c>
+      <c r="H42">
+        <v>-2.6859999999999999</v>
+      </c>
+      <c r="J42" s="4">
+        <v>581.52573299999995</v>
+      </c>
+      <c r="K42">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="2"/>
+        <v>581.52628299999992</v>
+      </c>
+      <c r="O42" s="4">
+        <f>G42*$G$56+$G$57</f>
+        <v>-1.5527563675200002</v>
+      </c>
+      <c r="Q42" s="4">
+        <f>ABS(H42-O42)</f>
+        <v>1.1332436324799997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>573.33037999999999</v>
       </c>
@@ -5183,13 +7030,43 @@
         <v>1860000</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D43">
         <v>-1.79</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G43">
+        <v>613.18011000000001</v>
+      </c>
+      <c r="H43">
+        <v>-1.091</v>
+      </c>
+      <c r="I43" s="2"/>
+      <c r="J43" s="4">
+        <v>613.18023700000003</v>
+      </c>
+      <c r="K43">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="2"/>
+        <v>613.18078700000001</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="4">
+        <f>G43*$G$56+$G$57</f>
+        <v>-1.3585822052600003</v>
+      </c>
+      <c r="Q43" s="4">
+        <f>ABS(H43-O43)</f>
+        <v>0.26758220526000032</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>581.52472</v>
       </c>
@@ -5197,13 +7074,43 @@
         <v>649000</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D44">
         <v>-2.6859999999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>60</v>
+      </c>
+      <c r="G44">
+        <v>665.33258000000001</v>
+      </c>
+      <c r="H44">
+        <v>-0.81299999999999994</v>
+      </c>
+      <c r="I44" s="2"/>
+      <c r="J44" s="4">
+        <v>665.33257500000002</v>
+      </c>
+      <c r="K44">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="2"/>
+        <v>665.333125</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="4">
+        <f>G44*$G$56+$G$57</f>
+        <v>-1.0386789542799999</v>
+      </c>
+      <c r="Q44" s="4">
+        <f>ABS(H44-O44)</f>
+        <v>0.22567895427999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>593.12987999999996</v>
       </c>
@@ -5211,13 +7118,43 @@
         <v>62900000</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D45">
         <v>1.089</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>61</v>
+      </c>
+      <c r="G45">
+        <v>679.375</v>
+      </c>
+      <c r="H45">
+        <v>-1.1379999999999999</v>
+      </c>
+      <c r="I45" s="2"/>
+      <c r="J45" s="4">
+        <v>679.37522999999999</v>
+      </c>
+      <c r="K45">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="2"/>
+        <v>679.37577999999996</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="4">
+        <f>G45*$G$56+$G$57</f>
+        <v>-0.9525427500000001</v>
+      </c>
+      <c r="Q45" s="4">
+        <f>ABS(H45-O45)</f>
+        <v>0.1854572499999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>600.38909999999998</v>
       </c>
@@ -5225,13 +7162,40 @@
         <v>3850000</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D46">
         <v>2.0049999999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F46" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G46">
+        <v>681.29540999999995</v>
+      </c>
+      <c r="H46">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="J46" s="4">
+        <v>681.29447700000003</v>
+      </c>
+      <c r="K46">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="2"/>
+        <v>681.295027</v>
+      </c>
+      <c r="O46" s="4">
+        <f>G46*$G$56+$G$57</f>
+        <v>-0.94076295506000029</v>
+      </c>
+      <c r="Q46" s="4">
+        <f>ABS(H46-O46)</f>
+        <v>1.5117629550600002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>613.18011000000001</v>
       </c>
@@ -5239,13 +7203,43 @@
         <v>1760000</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D47">
         <v>-1.091</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F47" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G47">
+        <v>719.2011</v>
+      </c>
+      <c r="H47">
+        <v>-0.57599999999999996</v>
+      </c>
+      <c r="I47" s="2"/>
+      <c r="J47" s="4">
+        <v>719.20097199999998</v>
+      </c>
+      <c r="K47">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="2"/>
+        <v>719.20152199999995</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="4">
+        <f>G47*$G$56+$G$57</f>
+        <v>-0.7082494526000005</v>
+      </c>
+      <c r="Q47" s="4">
+        <f>ABS(H47-O47)</f>
+        <v>0.13224945260000054</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>617.35650999999996</v>
       </c>
@@ -5253,13 +7247,43 @@
         <v>981000</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D48">
         <v>-0.68100000000000005</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>68</v>
+      </c>
+      <c r="G48">
+        <v>723.40148999999997</v>
+      </c>
+      <c r="H48">
+        <v>-0.67500000000000004</v>
+      </c>
+      <c r="I48" s="2"/>
+      <c r="J48" s="4">
+        <v>723.40144499999997</v>
+      </c>
+      <c r="K48">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="2"/>
+        <v>723.40199499999994</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="4">
+        <f>G48*$G$56+$G$57</f>
+        <v>-0.68248426034000076</v>
+      </c>
+      <c r="Q48" s="4">
+        <f>ABS(H48-O48)</f>
+        <v>7.4842603400007146E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>635.34893999999997</v>
       </c>
@@ -5267,13 +7291,40 @@
         <v>1790000</v>
       </c>
       <c r="C49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D49">
         <v>-0.97399999999999998</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F49" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G49">
+        <v>725.26239999999996</v>
+      </c>
+      <c r="H49">
+        <v>-1.821</v>
+      </c>
+      <c r="J49" s="4">
+        <v>725.26317700000004</v>
+      </c>
+      <c r="K49">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="2"/>
+        <v>725.26372700000002</v>
+      </c>
+      <c r="O49" s="4">
+        <f>G49*$G$56+$G$57</f>
+        <v>-0.67106943840000088</v>
+      </c>
+      <c r="Q49" s="4">
+        <f>ABS(H49-O49)</f>
+        <v>1.1499305615999991</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>637.15552000000002</v>
       </c>
@@ -5281,13 +7332,43 @@
         <v>11600000</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D50">
         <v>0.112</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>74</v>
+      </c>
+      <c r="G50">
+        <v>727.18695000000002</v>
+      </c>
+      <c r="H50">
+        <v>-1.3380000000000001</v>
+      </c>
+      <c r="I50" s="2"/>
+      <c r="J50" s="4">
+        <v>727.18742999999995</v>
+      </c>
+      <c r="K50">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="2"/>
+        <v>727.18797999999992</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="4">
+        <f>G50*$G$56+$G$57</f>
+        <v>-0.65926424870000044</v>
+      </c>
+      <c r="Q50" s="4">
+        <f>ABS(H50-O50)</f>
+        <v>0.67873575129999963</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>652.37591999999995</v>
       </c>
@@ -5295,13 +7376,43 @@
         <v>11500000</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D51">
         <v>-0.28799999999999998</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F51" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G51">
+        <v>737.59310000000005</v>
+      </c>
+      <c r="H51">
+        <v>-0.80300000000000005</v>
+      </c>
+      <c r="I51" s="2"/>
+      <c r="J51" s="4">
+        <v>737.59314500000005</v>
+      </c>
+      <c r="K51">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="2"/>
+        <v>737.59369500000003</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="4">
+        <f>G51*$G$56+$G$57</f>
+        <v>-0.59543292459999986</v>
+      </c>
+      <c r="Q51" s="4">
+        <f>ABS(H51-O51)</f>
+        <v>0.20756707540000019</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>665.33258000000001</v>
       </c>
@@ -5309,13 +7420,40 @@
         <v>451000</v>
       </c>
       <c r="C52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D52">
         <v>-0.81299999999999994</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>90</v>
+      </c>
+      <c r="G52">
+        <v>801.67499999999995</v>
+      </c>
+      <c r="H52">
+        <v>-2.0390000000000001</v>
+      </c>
+      <c r="J52" s="4">
+        <v>801.67608499999994</v>
+      </c>
+      <c r="K52">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="2"/>
+        <v>801.67663499999992</v>
+      </c>
+      <c r="O52" s="4">
+        <f>G52*$G$56+$G$57</f>
+        <v>-0.2023545500000008</v>
+      </c>
+      <c r="Q52" s="4">
+        <f>ABS(H52-O52)</f>
+        <v>1.8366454499999993</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>679.375</v>
       </c>
@@ -5323,13 +7461,40 @@
         <v>1370000</v>
       </c>
       <c r="C53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D53">
         <v>-1.1379999999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>93</v>
+      </c>
+      <c r="G53">
+        <v>851.49680000000001</v>
+      </c>
+      <c r="H53">
+        <v>1.996</v>
+      </c>
+      <c r="J53" s="4">
+        <v>851.49455499999999</v>
+      </c>
+      <c r="K53">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="2"/>
+        <v>851.49510499999997</v>
+      </c>
+      <c r="O53" s="4">
+        <f>G53*$G$56+$G$57</f>
+        <v>0.10325237119999997</v>
+      </c>
+      <c r="Q53" s="4">
+        <f>ABS(H53-O53)</f>
+        <v>1.8927476288</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>681.29540999999995</v>
       </c>
@@ -5337,13 +7502,14 @@
         <v>3390000</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D54">
         <v>0.57099999999999995</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>696.29755</v>
       </c>
@@ -5351,13 +7517,13 @@
         <v>359000</v>
       </c>
       <c r="C55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D55">
         <v>-3.33</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>699.21704</v>
       </c>
@@ -5365,188 +7531,677 @@
         <v>1270000</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D56">
         <v>-0.74099999999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
+        <v>81</v>
+      </c>
+      <c r="G56">
+        <v>6.1339999999999997E-3</v>
+      </c>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>713.23559999999998</v>
+        <v>713.23608000000002</v>
       </c>
       <c r="B57" s="1">
         <v>1010000</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="F57" t="s">
+        <v>102</v>
+      </c>
+      <c r="G57">
+        <v>-5.1198290000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>713.47320999999999</v>
+        <v>719.2011</v>
       </c>
       <c r="B58" s="1">
-        <v>809000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>399000</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58">
+        <v>-0.57599999999999996</v>
+      </c>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>717.48388999999997</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>723.40148999999997</v>
+      </c>
+      <c r="B59" s="1">
+        <v>445000</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59">
+        <v>-0.67500000000000004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>719.2011</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>725.26239999999996</v>
+      </c>
+      <c r="B60" s="1">
+        <v>455000</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D60">
+        <v>-1.821</v>
+      </c>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>723.40148999999997</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>727.18695000000002</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1290000</v>
+      </c>
+      <c r="C61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D61">
+        <v>-1.3380000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>725.26239999999996</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>729.17840000000001</v>
+      </c>
+      <c r="B62" s="1">
+        <v>2790000</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D62">
+        <v>-0.8</v>
+      </c>
+      <c r="I62" s="4"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>727.18695000000002</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>734.39480000000003</v>
+      </c>
+      <c r="B63" s="1">
+        <v>2240000</v>
+      </c>
+      <c r="C63" t="s">
+        <v>77</v>
+      </c>
+      <c r="D63">
+        <v>0.86699999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>729.17840000000001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>737.59310000000005</v>
+      </c>
+      <c r="B64" s="1">
+        <v>940000</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D64">
+        <v>-0.80300000000000005</v>
+      </c>
+      <c r="I64" s="4"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>734.39480000000003</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>746.97393999999997</v>
+      </c>
+      <c r="B65" s="1">
+        <v>36000</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65">
+        <v>-0.94499999999999995</v>
+      </c>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>737.59310000000005</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>762.31592000000001</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1960000</v>
+      </c>
+      <c r="C66" t="s">
+        <v>79</v>
+      </c>
+      <c r="D66">
+        <v>-0.53300000000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>746.87468999999999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>785.17160000000001</v>
+      </c>
+      <c r="B67" s="1">
+        <v>3330000</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>746.97393999999997</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+        <v>785.25385000000006</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1090000</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D68">
+        <v>-0.55700000000000005</v>
+      </c>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>762.31592000000001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>788.97500000000002</v>
+      </c>
+      <c r="B69" s="1">
+        <v>66300000</v>
+      </c>
+      <c r="C69" t="s">
+        <v>89</v>
+      </c>
+      <c r="D69">
+        <v>-1.1739999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>785.17160000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>801.67499999999995</v>
+      </c>
+      <c r="B70" s="1">
+        <v>1270000</v>
+      </c>
+      <c r="C70" t="s">
+        <v>90</v>
+      </c>
+      <c r="D70">
+        <v>-2.0390000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>785.25385000000006</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>803.18206999999995</v>
+      </c>
+      <c r="B71" s="1">
+        <v>1860000</v>
+      </c>
+      <c r="C71" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71">
+        <v>-0.98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>788.97500000000002</v>
+        <v>829.19809999999995</v>
       </c>
       <c r="B72" s="1">
-        <v>35900000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2100000</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D72">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>801.67499999999995</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>851.49680000000001</v>
+      </c>
+      <c r="B73" s="1">
+        <v>1400000</v>
+      </c>
+      <c r="C73" t="s">
+        <v>93</v>
+      </c>
+      <c r="D73">
+        <v>1.996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>803.18206999999995</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+        <v>861.18349999999998</v>
+      </c>
+      <c r="B74" s="1">
+        <v>1630000</v>
+      </c>
+      <c r="C74" t="s">
+        <v>94</v>
+      </c>
+      <c r="D74">
+        <v>-1.575</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>829.19809999999995</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+        <v>871.29040999999995</v>
+      </c>
+      <c r="B75" s="1">
+        <v>751000</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D75">
+        <v>-0.82299999999999995</v>
+      </c>
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>841.2731</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+        <v>875.23599999999999</v>
+      </c>
+      <c r="B76" s="1">
+        <v>227000</v>
+      </c>
+      <c r="C76" t="s">
+        <v>96</v>
+      </c>
+      <c r="D76">
+        <v>-1.0189999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>851.49680000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+        <v>885.30010000000004</v>
+      </c>
+      <c r="B77" s="1">
+        <v>1140000</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D77">
+        <v>-0.89700000000000002</v>
+      </c>
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>861.18349999999998</v>
+        <v>888.41409999999996</v>
       </c>
       <c r="B78" s="1">
-        <v>1660000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>871.29040999999995</v>
-      </c>
-      <c r="B79" s="1"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>875.23599999999999</v>
-      </c>
-      <c r="B80" s="1"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>885.30010000000004</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>888.41409999999996</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+        <v>203000</v>
+      </c>
+      <c r="C78" t="s">
+        <v>98</v>
+      </c>
+      <c r="D78">
+        <v>-0.89900000000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B84" s="1"/>
+      <c r="C84" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E84" t="s">
+        <v>70</v>
+      </c>
+      <c r="F84" t="s">
+        <v>80</v>
+      </c>
+      <c r="G84" t="s">
+        <v>100</v>
+      </c>
+      <c r="H84" t="s">
+        <v>73</v>
+      </c>
+      <c r="K84" t="s">
+        <v>83</v>
+      </c>
+      <c r="L84" t="s">
+        <v>81</v>
+      </c>
+      <c r="M84" t="s">
+        <v>82</v>
+      </c>
+      <c r="N84" t="s">
+        <v>84</v>
+      </c>
+      <c r="O84" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B85" s="1"/>
+      <c r="C85">
+        <v>297</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85" s="3">
+        <v>0.19930555555555554</v>
+      </c>
+      <c r="F85">
+        <v>47</v>
+      </c>
+      <c r="G85">
+        <v>47</v>
+      </c>
+      <c r="H85" s="5">
+        <f>G85-$G$85</f>
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>1300</v>
+      </c>
+      <c r="L85">
+        <v>10.250999999999999</v>
+      </c>
+      <c r="M85">
+        <v>286.81</v>
+      </c>
+      <c r="N85">
+        <f>(K85-M85)/L85</f>
+        <v>98.838162130523855</v>
+      </c>
+      <c r="O85" s="3">
+        <f>E85+(N85/1440)</f>
+        <v>0.26794316814619712</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>336</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86" s="3">
+        <v>0.20347222222222219</v>
+      </c>
+      <c r="F86">
+        <v>53</v>
+      </c>
+      <c r="G86">
+        <v>53</v>
+      </c>
+      <c r="H86" s="5">
+        <f>G86-$G$85</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>381</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
+      </c>
+      <c r="E87" s="3">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="F87">
+        <v>60</v>
+      </c>
+      <c r="G87">
+        <v>60</v>
+      </c>
+      <c r="H87" s="5">
+        <f>G87-$G$85</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>543</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
+      <c r="E88" s="3">
+        <v>0.21597222222222223</v>
+      </c>
+      <c r="F88">
+        <v>11</v>
+      </c>
+      <c r="G88">
+        <f>60+F88</f>
+        <v>71</v>
+      </c>
+      <c r="H88" s="5">
+        <f>G88-$G$85</f>
+        <v>24</v>
+      </c>
+      <c r="K88" t="s">
+        <v>85</v>
+      </c>
+      <c r="L88" t="s">
+        <v>81</v>
+      </c>
+      <c r="M88" t="s">
+        <v>82</v>
+      </c>
+      <c r="N88" t="s">
+        <v>84</v>
+      </c>
+      <c r="O88" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>698</v>
+      </c>
+      <c r="D89">
+        <v>5</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0.22361111111111109</v>
+      </c>
+      <c r="F89">
+        <v>22</v>
+      </c>
+      <c r="G89">
+        <f t="shared" ref="G89:G96" si="3">60+F89</f>
+        <v>82</v>
+      </c>
+      <c r="H89" s="5">
+        <f>G89-$G$85</f>
+        <v>35</v>
+      </c>
+      <c r="K89">
+        <v>9</v>
+      </c>
+      <c r="L89">
+        <v>8.3400000000000002E-2</v>
+      </c>
+      <c r="M89">
+        <v>2.1107</v>
+      </c>
+      <c r="N89">
+        <f>(K89-M89)/L89</f>
+        <v>82.605515587529979</v>
+      </c>
+      <c r="O89" s="3">
+        <f>E85+(N89/1440)</f>
+        <v>0.2566704969357847</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>983</v>
+      </c>
+      <c r="D90">
+        <v>8</v>
+      </c>
+      <c r="E90" s="3">
+        <v>0.24791666666666667</v>
+      </c>
+      <c r="F90">
+        <v>57</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
+      <c r="H90" s="5">
+        <f>G90-$G$85</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E91" s="3">
+        <v>0.19930555555555554</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="H91" s="5">
+        <f>G91-$G$85</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E92" s="3">
+        <v>0.19930555555555554</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="H92" s="5">
+        <f>G92-$G$85</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E93" s="3">
+        <v>0.19930555555555554</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="H93" s="5">
+        <f>G93-$G$85</f>
+        <v>13</v>
+      </c>
+      <c r="L93" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E94" s="3">
+        <v>0.19930555555555554</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="H94" s="5">
+        <f>G94-$G$85</f>
+        <v>13</v>
+      </c>
+      <c r="L94">
+        <f>(L85*N89)+M85</f>
+        <v>1133.5991402877698</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E95" s="3">
+        <v>0.19930555555555554</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="H95" s="5">
+        <f>G95-$G$85</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
+      <c r="E96" s="3">
+        <v>0.19930555555555554</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="H96" s="5">
+        <f>G96-$G$85</f>
+        <v>13</v>
+      </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
@@ -5586,24 +8241,17 @@
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="1"/>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="1"/>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" s="1"/>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D25">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
+  <conditionalFormatting sqref="Q28:Q53">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5612,978 +8260,1394 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" customWidth="1"/>
+    <col min="1" max="2" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
       <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>36</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>3</v>
       </c>
-      <c r="P1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>129.01933500000001</v>
       </c>
       <c r="C2">
+        <v>129.01933500000001</v>
+      </c>
+      <c r="D2">
         <v>129.01808650000001</v>
       </c>
-      <c r="D2">
-        <f>(C2-A2)/A2*10^6</f>
+      <c r="E2">
+        <f>(D2-A2)/A2*10^6</f>
         <v>-9.6768441722525544</v>
       </c>
-      <c r="F2">
+      <c r="G2">
+        <v>129.01933500000001</v>
+      </c>
+      <c r="H2">
         <v>129.01933920522799</v>
       </c>
-      <c r="G2">
-        <f>(F2-A2)/A2*10^6</f>
+      <c r="I2">
+        <f>(H2-A2)/A2*10^6</f>
         <v>3.259378124175575E-2</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>129.01933500000001</v>
       </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
       <c r="L2">
+        <v>129.01931927959399</v>
+      </c>
+      <c r="M2">
+        <f>(L2-K2)/K2*10^6</f>
+        <v>-0.12184534996883156</v>
+      </c>
+      <c r="O2">
         <v>129.01933500000001</v>
       </c>
-      <c r="M2">
+      <c r="P2">
         <v>129.01931927959399</v>
       </c>
-      <c r="N2">
-        <f>(M2-L2)/L2*10^6</f>
+      <c r="Q2">
+        <f>(P2-O2)/O2*10^6</f>
         <v>-0.12184534996883156</v>
       </c>
-      <c r="P2">
-        <v>129.01933500000001</v>
-      </c>
-      <c r="Q2">
-        <v>129.01931927959399</v>
-      </c>
-      <c r="R2">
-        <f>(Q2-P2)/P2*10^6</f>
-        <v>-0.12184534996883156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>145.050635</v>
       </c>
       <c r="C3">
+        <v>145.050635</v>
+      </c>
+      <c r="D3">
         <v>145.04945960000001</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D11" si="0">(C3-A3)/A3*10^6</f>
+      <c r="E3">
+        <f>(D3-A3)/A3*10^6</f>
         <v>-8.1033771413268365</v>
       </c>
-      <c r="F3">
+      <c r="G3">
+        <v>145.050635</v>
+      </c>
+      <c r="H3">
         <v>145.05063874520201</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G10" si="1">(F3-A3)/A3*10^6</f>
+      <c r="I3">
+        <f>(H3-A3)/A3*10^6</f>
         <v>2.5819962856945617E-2</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>145.050635</v>
       </c>
-      <c r="J3" t="s">
-        <v>6</v>
-      </c>
       <c r="L3">
+        <v>145.05065748129499</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M11" si="0">(L3-K3)/K3*10^6</f>
+        <v>0.15498929040151532</v>
+      </c>
+      <c r="O3">
         <v>145.050635</v>
       </c>
-      <c r="M3">
+      <c r="P3">
         <v>145.05065748129499</v>
       </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N11" si="2">(M3-L3)/L3*10^6</f>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q11" si="1">(P3-O3)/O3*10^6</f>
         <v>0.15498929040151532</v>
       </c>
-      <c r="P3">
-        <v>145.050635</v>
-      </c>
-      <c r="Q3">
-        <v>145.05065748129499</v>
-      </c>
-      <c r="R3">
-        <f t="shared" ref="R3:R11" si="3">(Q3-P3)/P3*10^6</f>
-        <v>0.15498929040151532</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>171.01214200000001</v>
       </c>
-      <c r="C4">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2">
+        <v>171.01214200000001</v>
+      </c>
+      <c r="D4">
         <v>171.01105670000001</v>
       </c>
-      <c r="D4">
+      <c r="E4">
+        <f>(D4-A4)/A4*10^6</f>
+        <v>-6.3463329989734509</v>
+      </c>
+      <c r="G4" s="2">
+        <v>171.01214200000001</v>
+      </c>
+      <c r="H4">
+        <v>171.012159180569</v>
+      </c>
+      <c r="I4">
+        <f>(H4-A4)/A4*10^6</f>
+        <v>0.10046403014357917</v>
+      </c>
+      <c r="K4" s="2">
+        <v>171.01214200000001</v>
+      </c>
+      <c r="L4">
+        <v>171.01215509048799</v>
+      </c>
+      <c r="M4">
         <f t="shared" si="0"/>
-        <v>-6.3463329989734509</v>
-      </c>
-      <c r="F4">
-        <v>171.012159180569</v>
-      </c>
-      <c r="G4">
+        <v>7.6547126007468727E-2</v>
+      </c>
+      <c r="O4" s="2">
+        <v>171.01214200000001</v>
+      </c>
+      <c r="P4">
+        <v>171.01215509048799</v>
+      </c>
+      <c r="Q4">
         <f t="shared" si="1"/>
-        <v>0.10046403014357917</v>
-      </c>
-      <c r="I4">
-        <v>171.01214200000001</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="2">
-        <v>171.01214200000001</v>
-      </c>
-      <c r="M4">
-        <v>171.01215509048799</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="2"/>
         <v>7.6547126007468727E-2</v>
       </c>
-      <c r="P4" s="2">
-        <v>171.01214200000001</v>
-      </c>
-      <c r="Q4">
-        <v>171.01215509048799</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="3"/>
-        <v>7.6547126007468727E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>171.10267000000002</v>
       </c>
       <c r="C5">
+        <v>171.10267000000002</v>
+      </c>
+      <c r="D5">
         <v>171.10154779999999</v>
       </c>
-      <c r="D5">
+      <c r="E5">
+        <f>(D5-A5)/A5*10^6</f>
+        <v>-6.5586352336053038</v>
+      </c>
+      <c r="G5">
+        <v>171.10267000000002</v>
+      </c>
+      <c r="H5">
+        <v>171.102672900817</v>
+      </c>
+      <c r="I5">
+        <f>(H5-A5)/A5*10^6</f>
+        <v>1.6953662852836386E-2</v>
+      </c>
+      <c r="K5">
+        <v>171.10267000000002</v>
+      </c>
+      <c r="L5">
+        <v>171.10266333742601</v>
+      </c>
+      <c r="M5">
         <f t="shared" si="0"/>
-        <v>-6.5586352336053038</v>
-      </c>
-      <c r="F5">
-        <v>171.102672900817</v>
-      </c>
-      <c r="G5">
+        <v>-3.8939041739922006E-2</v>
+      </c>
+      <c r="O5">
+        <v>171.10267000000002</v>
+      </c>
+      <c r="P5">
+        <v>171.10266333742601</v>
+      </c>
+      <c r="Q5">
         <f t="shared" si="1"/>
-        <v>1.6953662852836386E-2</v>
-      </c>
-      <c r="I5">
-        <v>171.10267000000002</v>
-      </c>
-      <c r="J5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5">
-        <v>171.10267000000002</v>
-      </c>
-      <c r="M5">
-        <v>171.10266333742601</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="2"/>
         <v>-3.8939041739922006E-2</v>
       </c>
-      <c r="P5">
-        <v>171.10267000000002</v>
-      </c>
-      <c r="Q5">
-        <v>171.10266333742601</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="3"/>
-        <v>-3.8939041739922006E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>187.09758500000001</v>
       </c>
       <c r="C6">
+        <v>187.09758500000001</v>
+      </c>
+      <c r="D6">
         <v>187.09654409999999</v>
       </c>
-      <c r="D6">
+      <c r="E6">
+        <f>(D6-A6)/A6*10^6</f>
+        <v>-5.5634069248990219</v>
+      </c>
+      <c r="G6">
+        <v>187.09758500000001</v>
+      </c>
+      <c r="H6">
+        <v>187.09757072858599</v>
+      </c>
+      <c r="I6">
+        <f>(H6-A6)/A6*10^6</f>
+        <v>-7.627791677148292E-2</v>
+      </c>
+      <c r="K6">
+        <v>187.09758500000001</v>
+      </c>
+      <c r="L6">
+        <v>187.09756859666101</v>
+      </c>
+      <c r="M6">
         <f t="shared" si="0"/>
-        <v>-5.5634069248990219</v>
-      </c>
-      <c r="F6">
-        <v>187.09757072858599</v>
-      </c>
-      <c r="G6">
+        <v>-8.7672638872092465E-2</v>
+      </c>
+      <c r="O6">
+        <v>187.09758500000001</v>
+      </c>
+      <c r="P6">
+        <v>187.09756859666101</v>
+      </c>
+      <c r="Q6">
         <f t="shared" si="1"/>
-        <v>-7.627791677148292E-2</v>
-      </c>
-      <c r="I6">
-        <v>187.09758500000001</v>
-      </c>
-      <c r="J6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6">
-        <v>187.09758500000001</v>
-      </c>
-      <c r="M6">
-        <v>187.09756859666101</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="2"/>
         <v>-8.7672638872092465E-2</v>
       </c>
-      <c r="P6">
-        <v>187.09758500000001</v>
-      </c>
-      <c r="Q6">
-        <v>187.09756859666101</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="3"/>
-        <v>-8.7672638872092465E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>189.07685000000001</v>
       </c>
       <c r="C7">
+        <v>189.07685000000001</v>
+      </c>
+      <c r="D7">
         <v>189.07585990000001</v>
       </c>
-      <c r="D7">
+      <c r="E7">
+        <f>(D7-A7)/A7*10^6</f>
+        <v>-5.236495107654183</v>
+      </c>
+      <c r="G7">
+        <v>189.07685000000001</v>
+      </c>
+      <c r="H7">
+        <v>189.07684607527801</v>
+      </c>
+      <c r="I7">
+        <f>(H7-A7)/A7*10^6</f>
+        <v>-2.0757284641182764E-2</v>
+      </c>
+      <c r="K7">
+        <v>189.07685000000001</v>
+      </c>
+      <c r="L7">
+        <v>189.076831925503</v>
+      </c>
+      <c r="M7">
         <f t="shared" si="0"/>
-        <v>-5.236495107654183</v>
-      </c>
-      <c r="F7">
-        <v>189.07684607527801</v>
-      </c>
-      <c r="G7">
+        <v>-9.5593389707079965E-2</v>
+      </c>
+      <c r="O7">
+        <v>189.07685000000001</v>
+      </c>
+      <c r="P7">
+        <v>189.076831925503</v>
+      </c>
+      <c r="Q7">
         <f t="shared" si="1"/>
-        <v>-2.0757284641182764E-2</v>
-      </c>
-      <c r="I7">
-        <v>189.07685000000001</v>
-      </c>
-      <c r="J7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7">
-        <v>189.07685000000001</v>
-      </c>
-      <c r="M7">
-        <v>189.076831925503</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="2"/>
         <v>-9.5593389707079965E-2</v>
       </c>
-      <c r="P7">
-        <v>189.07685000000001</v>
-      </c>
-      <c r="Q7">
-        <v>189.076831925503</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="3"/>
-        <v>-9.5593389707079965E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>201.113235</v>
       </c>
       <c r="C8">
+        <v>201.113235</v>
+      </c>
+      <c r="D8">
         <v>201.11232630000001</v>
       </c>
-      <c r="D8">
+      <c r="E8">
+        <f>(D8-A8)/A8*10^6</f>
+        <v>-4.5183500727664336</v>
+      </c>
+      <c r="G8">
+        <v>201.113235</v>
+      </c>
+      <c r="H8">
+        <v>201.11322662904701</v>
+      </c>
+      <c r="I8">
+        <f>(H8-A8)/A8*10^6</f>
+        <v>-4.1623083619725512E-2</v>
+      </c>
+      <c r="K8">
+        <v>201.113235</v>
+      </c>
+      <c r="L8">
+        <v>201.113223626696</v>
+      </c>
+      <c r="M8">
         <f t="shared" si="0"/>
-        <v>-4.5183500727664336</v>
-      </c>
-      <c r="F8">
-        <v>201.11322662904701</v>
-      </c>
-      <c r="G8">
+        <v>-5.655174312743072E-2</v>
+      </c>
+      <c r="O8">
+        <v>201.113235</v>
+      </c>
+      <c r="P8">
+        <v>201.113223626696</v>
+      </c>
+      <c r="Q8">
         <f t="shared" si="1"/>
-        <v>-4.1623083619725512E-2</v>
-      </c>
-      <c r="I8">
-        <v>201.113235</v>
-      </c>
-      <c r="J8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8">
-        <v>201.113235</v>
-      </c>
-      <c r="M8">
-        <v>201.113223626696</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="2"/>
         <v>-5.655174312743072E-2</v>
       </c>
-      <c r="P8">
-        <v>201.113235</v>
-      </c>
-      <c r="Q8">
-        <v>201.113223626696</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="3"/>
-        <v>-5.655174312743072E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>233.10306500000002</v>
       </c>
       <c r="C9">
+        <v>233.10306500000002</v>
+      </c>
+      <c r="D9">
         <v>233.1026291</v>
       </c>
-      <c r="D9">
+      <c r="E9">
+        <f>(D9-A9)/A9*10^6</f>
+        <v>-1.86998828185116</v>
+      </c>
+      <c r="G9">
+        <v>233.10306500000002</v>
+      </c>
+      <c r="H9">
+        <v>233.10308249532301</v>
+      </c>
+      <c r="I9">
+        <f>(H9-A9)/A9*10^6</f>
+        <v>7.5054023819891499E-2</v>
+      </c>
+      <c r="K9">
+        <v>233.10306500000002</v>
+      </c>
+      <c r="L9">
+        <v>233.103086188758</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="0"/>
-        <v>-1.86998828185116</v>
-      </c>
-      <c r="F9">
-        <v>233.10308249532301</v>
-      </c>
-      <c r="G9">
+        <v>9.0898667435954345E-2</v>
+      </c>
+      <c r="O9">
+        <v>233.10306500000002</v>
+      </c>
+      <c r="P9">
+        <v>233.103086188758</v>
+      </c>
+      <c r="Q9">
         <f t="shared" si="1"/>
-        <v>7.5054023819891499E-2</v>
-      </c>
-      <c r="I9">
-        <v>233.10306500000002</v>
-      </c>
-      <c r="J9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9">
-        <v>233.10306500000002</v>
-      </c>
-      <c r="M9">
-        <v>233.103086188758</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="2"/>
         <v>9.0898667435954345E-2</v>
       </c>
-      <c r="P9">
-        <v>233.10306500000002</v>
-      </c>
-      <c r="Q9">
-        <v>233.103086188758</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="3"/>
-        <v>9.0898667435954345E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>255.232955</v>
       </c>
       <c r="C10">
+        <v>255.232955</v>
+      </c>
+      <c r="D10">
         <v>255.2325439</v>
       </c>
-      <c r="D10">
+      <c r="E10">
+        <f>(D10-A10)/A10*10^6</f>
+        <v>-1.610685422687643</v>
+      </c>
+      <c r="G10">
+        <v>255.232955</v>
+      </c>
+      <c r="H10">
+        <v>255.23288694192399</v>
+      </c>
+      <c r="I10">
+        <f>(H10-A10)/A10*10^6</f>
+        <v>-0.2666508171344964</v>
+      </c>
+      <c r="K10">
+        <v>255.232955</v>
+      </c>
+      <c r="L10">
+        <v>255.23313778514401</v>
+      </c>
+      <c r="M10">
         <f t="shared" si="0"/>
-        <v>-1.610685422687643</v>
-      </c>
-      <c r="F10">
-        <v>255.23288694192399</v>
-      </c>
-      <c r="G10">
+        <v>0.71615024793915361</v>
+      </c>
+      <c r="O10">
+        <v>255.232955</v>
+      </c>
+      <c r="P10">
+        <v>255.23313778514401</v>
+      </c>
+      <c r="Q10">
         <f t="shared" si="1"/>
-        <v>-0.2666508171344964</v>
-      </c>
-      <c r="I10">
-        <v>255.232955</v>
-      </c>
-      <c r="J10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10">
-        <v>255.232955</v>
-      </c>
-      <c r="M10">
-        <v>255.23313778514401</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="2"/>
         <v>0.71615024793915361</v>
       </c>
-      <c r="P10">
-        <v>255.232955</v>
-      </c>
-      <c r="Q10">
-        <v>255.23313778514401</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="3"/>
-        <v>0.71615024793915361</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>283.26425499999999</v>
       </c>
       <c r="C11">
+        <v>283.26425499999999</v>
+      </c>
+      <c r="D11">
         <v>283.26380569999998</v>
       </c>
-      <c r="D11">
+      <c r="E11">
+        <f>(D11-A11)/A11*10^6</f>
+        <v>-1.5861514189775325</v>
+      </c>
+      <c r="G11">
+        <v>283.26425499999999</v>
+      </c>
+      <c r="H11">
+        <v>283.26408177341</v>
+      </c>
+      <c r="I11">
+        <f>(H11-A11)/A11*10^6</f>
+        <v>-0.61153706101460537</v>
+      </c>
+      <c r="K11">
+        <v>283.26425499999999</v>
+      </c>
+      <c r="L11">
+        <v>283.26428907478498</v>
+      </c>
+      <c r="M11">
         <f t="shared" si="0"/>
-        <v>-1.5861514189775325</v>
-      </c>
-      <c r="F11">
-        <v>283.26408177341</v>
-      </c>
-      <c r="G11">
-        <f>(F11-A11)/A11*10^6</f>
-        <v>-0.61153706101460537</v>
-      </c>
-      <c r="I11">
+        <v>0.12029327523814945</v>
+      </c>
+      <c r="O11">
         <v>283.26425499999999</v>
       </c>
-      <c r="J11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11">
-        <v>283.26425499999999</v>
-      </c>
-      <c r="M11">
+      <c r="P11">
         <v>283.26428907478498</v>
       </c>
-      <c r="N11">
-        <f t="shared" si="2"/>
+      <c r="Q11">
+        <f t="shared" si="1"/>
         <v>0.12029327523814945</v>
       </c>
-      <c r="P11">
-        <v>283.26425499999999</v>
-      </c>
-      <c r="Q11">
-        <v>283.26428907478498</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="3"/>
-        <v>0.12029327523814945</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>301.12927999999999</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
+        <v>317.091182</v>
+      </c>
+      <c r="D12">
         <v>317.09088000000003</v>
       </c>
-      <c r="D12">
-        <f t="shared" ref="D12:D22" si="4">(C12-A13)/A13*10^6</f>
+      <c r="E12">
+        <f>(D12-A13)/A13*10^6</f>
         <v>-0.95240743710270614</v>
       </c>
-      <c r="F12">
+      <c r="G12" s="2">
+        <v>317.091182</v>
+      </c>
+      <c r="H12">
         <v>317.09116637818499</v>
       </c>
-      <c r="G12">
-        <f>(F12-A13)/A13*10^6</f>
+      <c r="I12">
+        <f>(H12-A13)/A13*10^6</f>
         <v>-4.9266002640152393E-2</v>
       </c>
-      <c r="I12">
-        <v>317.091182</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" s="2">
+      <c r="K12" s="2">
         <v>325.18429199999997</v>
       </c>
+      <c r="L12">
+        <v>325.18423602062398</v>
+      </c>
       <c r="M12">
-        <v>325.18423602062398</v>
-      </c>
-      <c r="N12">
-        <f t="shared" ref="N12:N19" si="5">(M12-L12)/L12*10^6</f>
+        <f t="shared" ref="M12:M19" si="2">(L12-K12)/K12*10^6</f>
         <v>-0.17214661766696263</v>
       </c>
-      <c r="P12" s="2">
+      <c r="O12" s="2">
         <v>325.18429199999997</v>
       </c>
+      <c r="P12">
+        <v>325.18429941465098</v>
+      </c>
       <c r="Q12">
-        <v>325.18429941465098</v>
-      </c>
-      <c r="R12">
-        <f t="shared" ref="R12:R19" si="6">(Q12-P12)/P12*10^6</f>
+        <f t="shared" ref="Q12:Q19" si="3">(P12-O12)/O12*10^6</f>
         <v>2.2801381220253682E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>317.091182</v>
       </c>
-      <c r="C13">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2">
+        <v>325.18429199999997</v>
+      </c>
+      <c r="D13">
         <v>325.1837883</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="4"/>
+      <c r="E13">
+        <f>(D13-A14)/A14*10^6</f>
         <v>-1.5489678079759963</v>
       </c>
-      <c r="F13">
+      <c r="G13" s="2">
+        <v>325.18429199999997</v>
+      </c>
+      <c r="H13">
         <v>325.18420587249199</v>
       </c>
-      <c r="G13">
-        <f>(F13-A14)/A14*10^6</f>
+      <c r="I13">
+        <f>(H13-A14)/A14*10^6</f>
         <v>-0.26485752880155006</v>
       </c>
-      <c r="I13">
-        <v>325.18429199999997</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="2">
+      <c r="K13" s="2">
         <v>339.19994199999996</v>
       </c>
+      <c r="L13">
+        <v>339.19995026480001</v>
+      </c>
       <c r="M13">
-        <v>339.19995026480001</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>2.4365570334750106E-2</v>
       </c>
-      <c r="P13" s="2">
+      <c r="O13" s="2">
         <v>339.19994199999996</v>
       </c>
+      <c r="P13">
+        <v>339.19988719143902</v>
+      </c>
       <c r="Q13">
-        <v>339.19988719143902</v>
-      </c>
-      <c r="R13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-0.16158187004241817</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>325.18429199999997</v>
       </c>
-      <c r="C14">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2">
+        <v>326.18204399999996</v>
+      </c>
+      <c r="D14">
         <v>326.1818007</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="4"/>
+      <c r="E14">
+        <f>(D14-A15)/A15*10^6</f>
         <v>-0.74590249353373195</v>
       </c>
-      <c r="F14">
+      <c r="G14" s="2">
+        <v>326.18204399999996</v>
+      </c>
+      <c r="H14">
         <v>326.18212407633501</v>
       </c>
-      <c r="G14">
-        <f>(F14-A15)/A15*10^6</f>
+      <c r="I14">
+        <f>(H14-A15)/A15*10^6</f>
         <v>0.24549584051469514</v>
       </c>
-      <c r="I14">
-        <v>326.18204399999996</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" s="2">
+      <c r="K14" s="2">
         <v>361.11739699999998</v>
       </c>
+      <c r="L14">
+        <v>361.117367672721</v>
+      </c>
       <c r="M14">
-        <v>361.117367672721</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>-8.1212589656592366E-2</v>
       </c>
-      <c r="P14" s="2">
+      <c r="O14" s="2">
         <v>361.11739699999998</v>
       </c>
+      <c r="P14">
+        <v>361.11727560581897</v>
+      </c>
       <c r="Q14">
-        <v>361.11727560581897</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-0.33616264964346831</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>326.18204399999996</v>
       </c>
-      <c r="C15">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2">
+        <v>339.19994199999996</v>
+      </c>
+      <c r="D15">
         <v>339.19934160000003</v>
       </c>
-      <c r="D15">
-        <f t="shared" si="4"/>
+      <c r="E15">
+        <f>(D15-A16)/A16*10^6</f>
         <v>-1.7700474722938702</v>
       </c>
-      <c r="F15">
+      <c r="G15" s="2">
+        <v>339.19994199999996</v>
+      </c>
+      <c r="H15">
         <v>339.199730777789</v>
       </c>
-      <c r="G15">
-        <f>(F15-A16)/A16*10^6</f>
+      <c r="I15">
+        <f>(H15-A16)/A16*10^6</f>
         <v>-0.62270709634873411</v>
       </c>
-      <c r="I15">
-        <v>339.19994199999996</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>27</v>
+      <c r="K15">
+        <v>369.21301</v>
       </c>
       <c r="L15">
+        <v>369.213166790873</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>0.42466237310187066</v>
+      </c>
+      <c r="O15">
         <v>369.21301</v>
       </c>
-      <c r="M15">
-        <v>369.213166790873</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="5"/>
-        <v>0.42466237310187066</v>
-      </c>
       <c r="P15">
-        <v>369.21301</v>
+        <v>369.21304924185199</v>
       </c>
       <c r="Q15">
-        <v>369.21304924185199</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0.10628512790940244</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>339.19994199999996</v>
       </c>
-      <c r="C16">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2">
+        <v>361.11739699999998</v>
+      </c>
+      <c r="D16">
         <v>361.11690320000002</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="4"/>
+      <c r="E16">
+        <f>(D16-A17)/A17*10^6</f>
         <v>-1.3674223509047818</v>
       </c>
-      <c r="F16">
+      <c r="G16">
+        <v>369.21301</v>
+      </c>
+      <c r="H16">
         <v>369.21315026200301</v>
       </c>
-      <c r="G16">
-        <f t="shared" ref="G16:G21" si="7">(F16-A18)/A18*10^6</f>
+      <c r="I16">
+        <f>(H16-A18)/A18*10^6</f>
         <v>0.37989453030072867</v>
       </c>
-      <c r="I16">
-        <v>361.11739699999998</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" s="2">
+      <c r="K16" s="2">
         <v>381.23163699999998</v>
       </c>
+      <c r="L16">
+        <v>381.23172016990799</v>
+      </c>
       <c r="M16">
-        <v>381.23172016990799</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.21816108616792204</v>
       </c>
-      <c r="P16" s="2">
+      <c r="O16" s="2">
         <v>381.23163699999998</v>
       </c>
+      <c r="P16">
+        <v>381.23145101520799</v>
+      </c>
       <c r="Q16">
-        <v>381.23145101520799</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-0.48785246011252115</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>361.11739699999998</v>
       </c>
+      <c r="B17" s="2"/>
       <c r="C17">
+        <v>369.21301</v>
+      </c>
+      <c r="D17">
         <v>369.2126993</v>
       </c>
-      <c r="D17">
-        <f t="shared" si="4"/>
+      <c r="E17">
+        <f>(D17-A18)/A18*10^6</f>
         <v>-0.84151964200827356</v>
       </c>
-      <c r="F17">
+      <c r="G17" s="2">
+        <v>381.23163699999998</v>
+      </c>
+      <c r="H17">
         <v>381.23147716725299</v>
       </c>
-      <c r="G17">
-        <f t="shared" si="7"/>
+      <c r="I17">
+        <f>(H17-A19)/A19*10^6</f>
         <v>-0.41925362817627687</v>
       </c>
-      <c r="I17">
-        <v>369.21301</v>
-      </c>
-      <c r="J17" t="s">
-        <v>29</v>
+      <c r="K17">
+        <v>401.08780999999999</v>
       </c>
       <c r="L17">
+        <v>401.08781160571698</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>4.0034051114798599E-3</v>
+      </c>
+      <c r="O17">
         <v>401.08780999999999</v>
       </c>
-      <c r="M17">
-        <v>401.08781160571698</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="5"/>
-        <v>4.0034051114798599E-3</v>
-      </c>
       <c r="P17">
-        <v>401.08780999999999</v>
+        <v>401.08760938055701</v>
       </c>
       <c r="Q17">
-        <v>401.08760938055701</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-0.50018833276988062</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>369.21301</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
+        <v>381.23163699999998</v>
+      </c>
+      <c r="D18">
         <v>381.23106949999999</v>
       </c>
-      <c r="D18">
-        <f t="shared" si="4"/>
+      <c r="E18">
+        <f>(D18-A19)/A19*10^6</f>
         <v>-1.4885962887395039</v>
       </c>
-      <c r="F18">
+      <c r="G18">
+        <v>401.08780999999999</v>
+      </c>
+      <c r="H18">
         <v>401.087666059951</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="7"/>
+      <c r="I18">
+        <f>(H18-A20)/A20*10^6</f>
         <v>-0.35887415522742749</v>
       </c>
-      <c r="I18">
-        <v>381.23163699999998</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>30</v>
+      <c r="K18">
+        <v>415.21848999999997</v>
       </c>
       <c r="L18">
+        <v>415.21877507117</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>0.68655702212631575</v>
+      </c>
+      <c r="O18">
         <v>415.21848999999997</v>
       </c>
-      <c r="M18">
-        <v>415.21877507117</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="5"/>
-        <v>0.68655702212631575</v>
-      </c>
       <c r="P18">
-        <v>415.21848999999997</v>
+        <v>415.218505859375</v>
       </c>
       <c r="Q18">
-        <v>415.218505859375</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3.8195252397560935E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>381.23163699999998</v>
       </c>
+      <c r="B19" s="2"/>
       <c r="C19">
+        <v>401.08780999999999</v>
+      </c>
+      <c r="D19">
         <v>401.08731289999997</v>
       </c>
-      <c r="D19">
-        <f t="shared" si="4"/>
+      <c r="E19">
+        <f>(D19-A20)/A20*10^6</f>
         <v>-1.2393794765745578</v>
       </c>
-      <c r="F19">
+      <c r="G19">
+        <v>415.21848999999997</v>
+      </c>
+      <c r="H19">
         <v>415.21875815311699</v>
       </c>
-      <c r="G19">
-        <f t="shared" si="7"/>
+      <c r="I19">
+        <f>(H19-A21)/A21*10^6</f>
         <v>0.64581208081476571</v>
       </c>
-      <c r="I19">
-        <v>401.08780999999999</v>
-      </c>
-      <c r="J19" t="s">
-        <v>31</v>
+      <c r="K19">
+        <v>459.24470499999995</v>
       </c>
       <c r="L19">
+        <v>459.245082882171</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="2"/>
+        <v>0.82283402930289495</v>
+      </c>
+      <c r="O19">
         <v>459.24470499999995</v>
       </c>
-      <c r="M19">
-        <v>459.245082882171</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="5"/>
-        <v>0.82283402930289495</v>
-      </c>
       <c r="P19">
-        <v>459.24470499999995</v>
+        <v>459.24461593503702</v>
       </c>
       <c r="Q19">
-        <v>459.24461593503702</v>
-      </c>
-      <c r="R19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-0.19393792016716049</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>401.08780999999999</v>
       </c>
       <c r="C20">
+        <v>415.21848999999997</v>
+      </c>
+      <c r="D20">
         <v>415.21826090000002</v>
       </c>
-      <c r="D20">
-        <f t="shared" si="4"/>
+      <c r="E20">
+        <f>(D20-A21)/A21*10^6</f>
         <v>-0.5517577022061475</v>
       </c>
-      <c r="F20">
+      <c r="G20">
+        <v>459.24470499999995</v>
+      </c>
+      <c r="H20">
         <v>459.244950692261</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="7"/>
+      <c r="I20">
+        <f>(H20-A22)/A22*10^6</f>
         <v>0.53499203882234259</v>
       </c>
-      <c r="I20">
-        <v>415.21848999999997</v>
-      </c>
-      <c r="J20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K20" s="8">
+        <v>529.30519600000002</v>
+      </c>
+      <c r="L20" s="8">
+        <v>529.3047444</v>
+      </c>
+      <c r="M20" s="8">
+        <f t="shared" ref="M20:M23" si="4">(L20-K20)/K20*10^6</f>
+        <v>-0.85319396717092755</v>
+      </c>
+      <c r="O20" s="8">
+        <v>529.30519600000002</v>
+      </c>
+      <c r="P20" s="8">
+        <v>529.30379310000001</v>
+      </c>
+      <c r="Q20" s="8">
+        <f t="shared" ref="Q20:Q23" si="5">(P20-O20)/O20*10^6</f>
+        <v>-2.6504557495717762</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>415.21848999999997</v>
       </c>
       <c r="C21">
+        <v>459.24470499999995</v>
+      </c>
+      <c r="D21">
         <v>459.24449390000001</v>
       </c>
-      <c r="D21">
+      <c r="E21">
+        <f>(D21-A22)/A22*10^6</f>
+        <v>-0.45966779289160986</v>
+      </c>
+      <c r="G21">
+        <v>503.27091999999999</v>
+      </c>
+      <c r="H21">
+        <v>503.271450915294</v>
+      </c>
+      <c r="I21">
+        <f>(H21-A23)/A23*10^6</f>
+        <v>1.0549294086119116</v>
+      </c>
+      <c r="K21">
+        <v>549.52521999999999</v>
+      </c>
+      <c r="L21">
+        <v>549.52533270000004</v>
+      </c>
+      <c r="M21">
         <f t="shared" si="4"/>
-        <v>-0.45966779289160986</v>
-      </c>
-      <c r="F21">
-        <v>503.271450915294</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="7"/>
-        <v>1.0549294086119116</v>
-      </c>
-      <c r="I21">
-        <v>459.24470499999995</v>
-      </c>
-      <c r="J21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.20508612879523835</v>
+      </c>
+      <c r="O21">
+        <v>549.52521999999999</v>
+      </c>
+      <c r="P21">
+        <v>549.52421089999996</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="5"/>
+        <v>-1.8363124444642569</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>459.24470499999995</v>
       </c>
       <c r="C22">
+        <v>503.27091999999999</v>
+      </c>
+      <c r="D22">
         <v>503.27086539999999</v>
       </c>
-      <c r="D22">
+      <c r="E22">
+        <f>(D22-A23)/A23*10^6</f>
+        <v>-0.10849027398319072</v>
+      </c>
+      <c r="G22" s="8">
+        <v>507.47826999999995</v>
+      </c>
+      <c r="H22" s="8">
+        <v>507.4778384</v>
+      </c>
+      <c r="I22" s="8">
+        <v>-0.85047976528380953</v>
+      </c>
+      <c r="K22">
+        <v>567.53578499999992</v>
+      </c>
+      <c r="L22">
+        <v>567.53652139999997</v>
+      </c>
+      <c r="M22">
         <f t="shared" si="4"/>
-        <v>-0.10849027398319072</v>
-      </c>
-      <c r="I22">
-        <v>503.27091999999999</v>
-      </c>
-      <c r="J22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1.2975393261778334</v>
+      </c>
+      <c r="O22">
+        <v>567.53578499999992</v>
+      </c>
+      <c r="P22">
+        <v>567.53510900000003</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="5"/>
+        <v>-1.1911143186942474</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>503.27091999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C23" s="8">
+        <v>507.47826999999995</v>
+      </c>
+      <c r="D23" s="8">
+        <v>507.4771978</v>
+      </c>
+      <c r="E23" s="8">
+        <v>-2.1127998248146218</v>
+      </c>
+      <c r="G23">
+        <v>529.30519600000002</v>
+      </c>
+      <c r="H23">
+        <v>529.30433719999996</v>
+      </c>
+      <c r="I23">
+        <v>-1.6225043822543552</v>
+      </c>
+      <c r="K23">
+        <v>573.331412</v>
+      </c>
+      <c r="L23">
+        <v>573.33092529999999</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="4"/>
+        <v>-0.8488981936513661</v>
+      </c>
+      <c r="O23">
+        <v>573.331412</v>
+      </c>
+      <c r="P23">
+        <v>573.33014060000005</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="5"/>
+        <v>-2.2175655708718045</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>547.29713500000003</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>511.473184</v>
+      </c>
+      <c r="D24">
+        <v>511.47257150000002</v>
+      </c>
+      <c r="E24">
+        <v>-1.197521236985043</v>
+      </c>
+      <c r="G24">
+        <v>531.30221999999992</v>
+      </c>
+      <c r="H24">
+        <v>531.30358479999995</v>
+      </c>
+      <c r="I24">
+        <v>2.5687827918976676</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>591.32335</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>529.30519600000002</v>
+      </c>
+      <c r="D25">
+        <v>529.30396399999995</v>
+      </c>
+      <c r="E25">
+        <v>-2.3275796447551409</v>
+      </c>
+      <c r="G25">
+        <v>537.48883499999999</v>
+      </c>
+      <c r="H25">
+        <v>537.48887769999999</v>
+      </c>
+      <c r="I25">
+        <v>7.9443510662897801E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>531.30221999999992</v>
+      </c>
+      <c r="D26">
+        <v>531.30209239999999</v>
+      </c>
+      <c r="E26">
+        <v>-0.24016462782322281</v>
+      </c>
+      <c r="G26">
+        <v>549.52521999999999</v>
+      </c>
+      <c r="H26">
+        <v>549.52490660000001</v>
+      </c>
+      <c r="I26">
+        <v>-0.57031049454256455</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>537.48883499999999</v>
+      </c>
+      <c r="D27">
+        <v>537.4882801</v>
+      </c>
+      <c r="E27">
+        <v>-1.0323935379929525</v>
+      </c>
+      <c r="G27">
+        <v>567.53578499999992</v>
+      </c>
+      <c r="H27">
+        <v>567.53615379999997</v>
+      </c>
+      <c r="I27">
+        <v>0.6498268651845035</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28">
+        <v>549.52521999999999</v>
+      </c>
+      <c r="D28">
+        <v>549.52431360000003</v>
+      </c>
+      <c r="E28">
+        <v>-1.649423842571883</v>
+      </c>
+      <c r="G28">
+        <v>573.331412</v>
+      </c>
+      <c r="H28">
+        <v>573.33071010000003</v>
+      </c>
+      <c r="I28">
+        <v>-1.2242482886447559</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>505.247682</v>
+      </c>
+      <c r="C29">
+        <v>567.53578499999992</v>
+      </c>
+      <c r="D29">
+        <v>567.53531880000003</v>
+      </c>
+      <c r="E29">
+        <v>-0.82144599902473903</v>
+      </c>
+      <c r="G29">
+        <v>581.52628299999992</v>
+      </c>
+      <c r="H29">
+        <v>581.52640410000004</v>
+      </c>
+      <c r="I29">
+        <v>0.20824510199291063</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>507.47826999999995</v>
+      </c>
       <c r="C30">
+        <v>573.331412</v>
+      </c>
+      <c r="D30">
+        <v>573.33031089999997</v>
+      </c>
+      <c r="E30">
+        <v>-1.9205296918705279</v>
+      </c>
+      <c r="G30">
+        <v>681.295027</v>
+      </c>
+      <c r="H30">
+        <v>681.29748259999997</v>
+      </c>
+      <c r="I30">
+        <v>3.6043122328001855</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>511.473184</v>
+      </c>
+      <c r="C31">
+        <v>581.52628299999992</v>
+      </c>
+      <c r="D31">
+        <v>581.5256349</v>
+      </c>
+      <c r="E31">
+        <v>-1.1144810112068735</v>
+      </c>
+      <c r="G31">
+        <v>801.67663499999992</v>
+      </c>
+      <c r="H31">
+        <v>801.67659719999995</v>
+      </c>
+      <c r="I31">
+        <v>-4.7151180815911242E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>513.31028100000003</v>
+      </c>
+      <c r="C32">
+        <v>681.295027</v>
+      </c>
+      <c r="D32">
+        <v>681.2954135</v>
+      </c>
+      <c r="E32">
+        <v>0.56730195388688698</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>519.26333199999999</v>
+      </c>
+      <c r="C33">
+        <v>801.67663499999992</v>
+      </c>
+      <c r="D33">
+        <v>801.67562680000003</v>
+      </c>
+      <c r="E33">
+        <v>-1.2576142996701383</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>529.30519600000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>531.30221999999992</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>535.14571999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>537.48883499999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>549.52521999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>553.28406699999994</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>563.28885300000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>567.53578499999992</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>573.331412</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>581.52628299999992</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>613.18078700000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>665.333125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>679.37577999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>681.295027</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>719.20152199999995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>723.40199499999994</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>725.26372700000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>727.18797999999992</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>737.59369500000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>801.67663499999992</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>851.49510499999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>-1</v>
+      </c>
+      <c r="E55">
         <v>0</v>
       </c>
-      <c r="D30">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C56">
         <v>-1</v>
       </c>
-      <c r="F30">
+      <c r="E56">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B61">
         <v>0</v>
       </c>
-      <c r="G30">
+      <c r="F61">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C31">
-        <v>550</v>
-      </c>
-      <c r="D31">
-        <v>-1</v>
-      </c>
-      <c r="F31">
-        <v>550</v>
-      </c>
-      <c r="G31">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>900</v>
+      </c>
+      <c r="F62">
         <v>1</v>
       </c>
     </row>

--- a/products analysis/reference compounds analysis/fatacidref list and analysis.xlsx
+++ b/products analysis/reference compounds analysis/fatacidref list and analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Steven\Target Decoy\products analysis\reference compounds analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skutarna\Documents\MSc 2\NTA\TargetDecoy\products analysis\reference compounds analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADF7F14-366B-4053-8C4A-76E1D12FDD86}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A719D6-D022-4262-96BB-C705767A1497}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ref Find" sheetId="1" r:id="rId1"/>
@@ -2153,6 +2153,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1443328576"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -5380,15 +5381,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>42331</xdr:rowOff>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>182031</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5719,18 +5720,18 @@
       <selection activeCell="A25" sqref="A2:A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7265625" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5753,7 +5754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>129.0181</v>
       </c>
@@ -5777,7 +5778,7 @@
         <v>129.01933500000001</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>145.04949999999999</v>
       </c>
@@ -5801,7 +5802,7 @@
         <v>145.050635</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>171.0111</v>
       </c>
@@ -5825,7 +5826,7 @@
         <v>171.01214200000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>171.10159999999999</v>
       </c>
@@ -5849,7 +5850,7 @@
         <v>171.10267000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>187.09649999999999</v>
       </c>
@@ -5873,7 +5874,7 @@
         <v>187.09758500000001</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>189.07589999999999</v>
       </c>
@@ -5897,7 +5898,7 @@
         <v>189.07685000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>201.1123</v>
       </c>
@@ -5921,7 +5922,7 @@
         <v>201.113235</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>233.10239999999999</v>
       </c>
@@ -5945,7 +5946,7 @@
         <v>233.10306500000002</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>255.23249999999999</v>
       </c>
@@ -5969,7 +5970,7 @@
         <v>255.232955</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>283.2638</v>
       </c>
@@ -5993,7 +5994,7 @@
         <v>283.26425499999999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>301.12889999999999</v>
       </c>
@@ -6017,7 +6018,7 @@
         <v>301.12927999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>317.09100000000001</v>
       </c>
@@ -6041,7 +6042,7 @@
         <v>317.091182</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>325.18400000000003</v>
       </c>
@@ -6065,7 +6066,7 @@
         <v>325.18429199999997</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>326.18180000000001</v>
       </c>
@@ -6089,7 +6090,7 @@
         <v>326.18204399999996</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>339.19959999999998</v>
       </c>
@@ -6113,7 +6114,7 @@
         <v>339.19994199999996</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>361.11689999999999</v>
       </c>
@@ -6137,7 +6138,7 @@
         <v>361.11739699999998</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>369.21269999999998</v>
       </c>
@@ -6161,7 +6162,7 @@
         <v>369.21301</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>381.2312</v>
       </c>
@@ -6185,7 +6186,7 @@
         <v>381.23163699999998</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>401.0874</v>
       </c>
@@ -6209,7 +6210,7 @@
         <v>401.08780999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>415.2183</v>
       </c>
@@ -6233,7 +6234,7 @@
         <v>415.21848999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>459.24439999999998</v>
       </c>
@@ -6257,7 +6258,7 @@
         <v>459.24470499999995</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>503.27080000000001</v>
       </c>
@@ -6281,7 +6282,7 @@
         <v>503.27091999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>547.29700000000003</v>
       </c>
@@ -6305,7 +6306,7 @@
         <v>547.29713500000003</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>591.32360000000006</v>
       </c>
@@ -6329,7 +6330,7 @@
         <v>591.32335</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -6367,7 +6368,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>505.24682999999999</v>
       </c>
@@ -6403,19 +6404,19 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="4">
-        <f>G28*$G$56+$G$57</f>
+        <f t="shared" ref="O28:O53" si="2">G28*$G$56+$G$57</f>
         <v>-2.0206449447800003</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="4">
-        <f>ABS(H28-O28)</f>
+        <f t="shared" ref="Q28:Q53" si="3">ABS(H28-O28)</f>
         <v>0.34464494478000041</v>
       </c>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>507.47710999999998</v>
       </c>
@@ -6445,21 +6446,21 @@
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="L29">
-        <f t="shared" ref="L29:L53" si="2">J29+K29</f>
+        <f t="shared" ref="L29:L53" si="4">J29+K29</f>
         <v>507.47826999999995</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="4">
-        <f>G29*$G$56+$G$57</f>
+        <f t="shared" si="2"/>
         <v>-2.0069644072600004</v>
       </c>
       <c r="Q29" s="4">
-        <f>ABS(H29-O29)</f>
+        <f t="shared" si="3"/>
         <v>0.27703559273999945</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>511.47205000000002</v>
       </c>
@@ -6489,21 +6490,21 @@
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="L30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>511.473184</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="4">
-        <f>G30*$G$56+$G$57</f>
+        <f t="shared" si="2"/>
         <v>-1.9824594453000004</v>
       </c>
       <c r="Q30" s="4">
-        <f>ABS(H30-O30)</f>
+        <f t="shared" si="3"/>
         <v>0.23454055469999968</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>513.30889999999999</v>
       </c>
@@ -6533,21 +6534,21 @@
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="L31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>513.31028100000003</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="4">
-        <f>G31*$G$56+$G$57</f>
+        <f t="shared" si="2"/>
         <v>-1.9711922074000006</v>
       </c>
       <c r="Q31" s="4">
-        <f>ABS(H31-O31)</f>
+        <f t="shared" si="3"/>
         <v>0.71180779259999927</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>519.26207999999997</v>
       </c>
@@ -6577,21 +6578,21 @@
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="L32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>519.26333199999999</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="4">
-        <f>G32*$G$56+$G$57</f>
+        <f t="shared" si="2"/>
         <v>-1.9346754012800007</v>
       </c>
       <c r="Q32" s="4">
-        <f>ABS(H32-O32)</f>
+        <f t="shared" si="3"/>
         <v>0.46632459871999909</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>527.14306999999997</v>
       </c>
@@ -6621,21 +6622,21 @@
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="L33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>529.30519600000002</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="4">
-        <f>G33*$G$56+$G$57</f>
+        <f t="shared" si="2"/>
         <v>-1.8730789387400004</v>
       </c>
       <c r="Q33" s="4">
-        <f>ABS(H33-O33)</f>
+        <f t="shared" si="3"/>
         <v>0.58592106125999965</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>529.30389000000002</v>
       </c>
@@ -6665,21 +6666,21 @@
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="L34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>531.30221999999992</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="4">
-        <f>G34*$G$56+$G$57</f>
+        <f t="shared" si="2"/>
         <v>-1.8608240041600008</v>
       </c>
       <c r="Q34" s="4">
-        <f>ABS(H34-O34)</f>
+        <f t="shared" si="3"/>
         <v>1.0048240041600009</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>531.30175999999994</v>
       </c>
@@ -6709,21 +6710,21 @@
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="L35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>535.14571999999998</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="4">
-        <f>G35*$G$56+$G$57</f>
+        <f t="shared" si="2"/>
         <v>-1.8372517169000004</v>
       </c>
       <c r="Q35" s="4">
-        <f>ABS(H35-O35)</f>
+        <f t="shared" si="3"/>
         <v>0.15074828309999955</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>535.14464999999996</v>
       </c>
@@ -6753,21 +6754,21 @@
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="L36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>537.48883499999999</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="4">
-        <f>G36*$G$56+$G$57</f>
+        <f t="shared" si="2"/>
         <v>-1.8228777306800006</v>
       </c>
       <c r="Q36" s="4">
-        <f>ABS(H36-O36)</f>
+        <f t="shared" si="3"/>
         <v>0.23487773068000051</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>537.48797999999999</v>
       </c>
@@ -6797,21 +6798,21 @@
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="L37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>549.52521999999999</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="4">
-        <f>G37*$G$56+$G$57</f>
+        <f t="shared" si="2"/>
         <v>-1.7490473731800003</v>
       </c>
       <c r="Q37" s="4">
-        <f>ABS(H37-O37)</f>
+        <f t="shared" si="3"/>
         <v>5.0952626819999791E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>547.29633000000001</v>
       </c>
@@ -6840,19 +6841,19 @@
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="L38">
+        <f t="shared" si="4"/>
+        <v>553.28406699999994</v>
+      </c>
+      <c r="O38" s="4">
         <f t="shared" si="2"/>
-        <v>553.28406699999994</v>
-      </c>
-      <c r="O38" s="4">
-        <f>G38*$G$56+$G$57</f>
         <v>-1.7259842079200003</v>
       </c>
       <c r="Q38" s="4">
-        <f>ABS(H38-O38)</f>
+        <f t="shared" si="3"/>
         <v>1.8299842079200004</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>549.52422999999999</v>
       </c>
@@ -6881,19 +6882,19 @@
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="L39">
+        <f t="shared" si="4"/>
+        <v>563.28885300000002</v>
+      </c>
+      <c r="O39" s="4">
         <f t="shared" si="2"/>
-        <v>563.28885300000002</v>
-      </c>
-      <c r="O39" s="4">
-        <f>G39*$G$56+$G$57</f>
         <v>-1.6646210214000003</v>
       </c>
       <c r="Q39" s="4">
-        <f>ABS(H39-O39)</f>
+        <f t="shared" si="3"/>
         <v>2.33789785999996E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>553.28412000000003</v>
       </c>
@@ -6923,21 +6924,21 @@
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="L40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>567.53578499999992</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="4">
-        <f>G40*$G$56+$G$57</f>
+        <f t="shared" si="2"/>
         <v>-1.6385686966000002</v>
       </c>
       <c r="Q40" s="4">
-        <f>ABS(H40-O40)</f>
+        <f t="shared" si="3"/>
         <v>0.43356869660000008</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>563.28790000000004</v>
       </c>
@@ -6967,21 +6968,21 @@
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="L41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>573.331412</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="4">
-        <f>G41*$G$56+$G$57</f>
+        <f t="shared" si="2"/>
         <v>-1.6030204490800006</v>
       </c>
       <c r="Q41" s="4">
-        <f>ABS(H41-O41)</f>
+        <f t="shared" si="3"/>
         <v>0.1869795509199994</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>567.53510000000006</v>
       </c>
@@ -7010,19 +7011,19 @@
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="L42">
+        <f t="shared" si="4"/>
+        <v>581.52628299999992</v>
+      </c>
+      <c r="O42" s="4">
         <f t="shared" si="2"/>
-        <v>581.52628299999992</v>
-      </c>
-      <c r="O42" s="4">
-        <f>G42*$G$56+$G$57</f>
         <v>-1.5527563675200002</v>
       </c>
       <c r="Q42" s="4">
-        <f>ABS(H42-O42)</f>
+        <f t="shared" si="3"/>
         <v>1.1332436324799997</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>573.33037999999999</v>
       </c>
@@ -7052,21 +7053,21 @@
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="L43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>613.18078700000001</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="4">
-        <f>G43*$G$56+$G$57</f>
+        <f t="shared" si="2"/>
         <v>-1.3585822052600003</v>
       </c>
       <c r="Q43" s="4">
-        <f>ABS(H43-O43)</f>
+        <f t="shared" si="3"/>
         <v>0.26758220526000032</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>581.52472</v>
       </c>
@@ -7096,21 +7097,21 @@
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="L44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>665.333125</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="4">
-        <f>G44*$G$56+$G$57</f>
+        <f t="shared" si="2"/>
         <v>-1.0386789542799999</v>
       </c>
       <c r="Q44" s="4">
-        <f>ABS(H44-O44)</f>
+        <f t="shared" si="3"/>
         <v>0.22567895427999995</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>593.12987999999996</v>
       </c>
@@ -7140,21 +7141,21 @@
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="L45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>679.37577999999996</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="4">
-        <f>G45*$G$56+$G$57</f>
+        <f t="shared" si="2"/>
         <v>-0.9525427500000001</v>
       </c>
       <c r="Q45" s="4">
-        <f>ABS(H45-O45)</f>
+        <f t="shared" si="3"/>
         <v>0.1854572499999998</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>600.38909999999998</v>
       </c>
@@ -7183,19 +7184,19 @@
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="L46">
+        <f t="shared" si="4"/>
+        <v>681.295027</v>
+      </c>
+      <c r="O46" s="4">
         <f t="shared" si="2"/>
-        <v>681.295027</v>
-      </c>
-      <c r="O46" s="4">
-        <f>G46*$G$56+$G$57</f>
         <v>-0.94076295506000029</v>
       </c>
       <c r="Q46" s="4">
-        <f>ABS(H46-O46)</f>
+        <f t="shared" si="3"/>
         <v>1.5117629550600002</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>613.18011000000001</v>
       </c>
@@ -7225,21 +7226,21 @@
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="L47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>719.20152199999995</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="4">
-        <f>G47*$G$56+$G$57</f>
+        <f t="shared" si="2"/>
         <v>-0.7082494526000005</v>
       </c>
       <c r="Q47" s="4">
-        <f>ABS(H47-O47)</f>
+        <f t="shared" si="3"/>
         <v>0.13224945260000054</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>617.35650999999996</v>
       </c>
@@ -7269,21 +7270,21 @@
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="L48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>723.40199499999994</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="4">
-        <f>G48*$G$56+$G$57</f>
+        <f t="shared" si="2"/>
         <v>-0.68248426034000076</v>
       </c>
       <c r="Q48" s="4">
-        <f>ABS(H48-O48)</f>
+        <f t="shared" si="3"/>
         <v>7.4842603400007146E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>635.34893999999997</v>
       </c>
@@ -7312,19 +7313,19 @@
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="L49">
+        <f t="shared" si="4"/>
+        <v>725.26372700000002</v>
+      </c>
+      <c r="O49" s="4">
         <f t="shared" si="2"/>
-        <v>725.26372700000002</v>
-      </c>
-      <c r="O49" s="4">
-        <f>G49*$G$56+$G$57</f>
         <v>-0.67106943840000088</v>
       </c>
       <c r="Q49" s="4">
-        <f>ABS(H49-O49)</f>
+        <f t="shared" si="3"/>
         <v>1.1499305615999991</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>637.15552000000002</v>
       </c>
@@ -7354,21 +7355,21 @@
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="L50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>727.18797999999992</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="4">
-        <f>G50*$G$56+$G$57</f>
+        <f t="shared" si="2"/>
         <v>-0.65926424870000044</v>
       </c>
       <c r="Q50" s="4">
-        <f>ABS(H50-O50)</f>
+        <f t="shared" si="3"/>
         <v>0.67873575129999963</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>652.37591999999995</v>
       </c>
@@ -7398,21 +7399,21 @@
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="L51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>737.59369500000003</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="4">
-        <f>G51*$G$56+$G$57</f>
+        <f t="shared" si="2"/>
         <v>-0.59543292459999986</v>
       </c>
       <c r="Q51" s="4">
-        <f>ABS(H51-O51)</f>
+        <f t="shared" si="3"/>
         <v>0.20756707540000019</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>665.33258000000001</v>
       </c>
@@ -7441,19 +7442,19 @@
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="L52">
+        <f t="shared" si="4"/>
+        <v>801.67663499999992</v>
+      </c>
+      <c r="O52" s="4">
         <f t="shared" si="2"/>
-        <v>801.67663499999992</v>
-      </c>
-      <c r="O52" s="4">
-        <f>G52*$G$56+$G$57</f>
         <v>-0.2023545500000008</v>
       </c>
       <c r="Q52" s="4">
-        <f>ABS(H52-O52)</f>
+        <f t="shared" si="3"/>
         <v>1.8366454499999993</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>679.375</v>
       </c>
@@ -7482,19 +7483,19 @@
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="L53">
+        <f t="shared" si="4"/>
+        <v>851.49510499999997</v>
+      </c>
+      <c r="O53" s="4">
         <f t="shared" si="2"/>
-        <v>851.49510499999997</v>
-      </c>
-      <c r="O53" s="4">
-        <f>G53*$G$56+$G$57</f>
         <v>0.10325237119999997</v>
       </c>
       <c r="Q53" s="4">
-        <f>ABS(H53-O53)</f>
+        <f t="shared" si="3"/>
         <v>1.8927476288</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>681.29540999999995</v>
       </c>
@@ -7509,7 +7510,7 @@
       </c>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>696.29755</v>
       </c>
@@ -7523,7 +7524,7 @@
         <v>-3.33</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>699.21704</v>
       </c>
@@ -7544,7 +7545,7 @@
       </c>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>713.23608000000002</v>
       </c>
@@ -7564,7 +7565,7 @@
         <v>-5.1198290000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>719.2011</v>
       </c>
@@ -7579,7 +7580,7 @@
       </c>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>723.40148999999997</v>
       </c>
@@ -7593,7 +7594,7 @@
         <v>-0.67500000000000004</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>725.26239999999996</v>
       </c>
@@ -7608,7 +7609,7 @@
       </c>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>727.18695000000002</v>
       </c>
@@ -7622,7 +7623,7 @@
         <v>-1.3380000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>729.17840000000001</v>
       </c>
@@ -7637,7 +7638,7 @@
       </c>
       <c r="I62" s="4"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>734.39480000000003</v>
       </c>
@@ -7651,7 +7652,7 @@
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>737.59310000000005</v>
       </c>
@@ -7666,7 +7667,7 @@
       </c>
       <c r="I64" s="4"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>746.97393999999997</v>
       </c>
@@ -7681,7 +7682,7 @@
       </c>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>762.31592000000001</v>
       </c>
@@ -7695,7 +7696,7 @@
         <v>-0.53300000000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>785.17160000000001</v>
       </c>
@@ -7710,7 +7711,7 @@
       </c>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>785.25385000000006</v>
       </c>
@@ -7725,7 +7726,7 @@
       </c>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>788.97500000000002</v>
       </c>
@@ -7739,7 +7740,7 @@
         <v>-1.1739999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>801.67499999999995</v>
       </c>
@@ -7753,7 +7754,7 @@
         <v>-2.0390000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>803.18206999999995</v>
       </c>
@@ -7767,7 +7768,7 @@
         <v>-0.98</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>829.19809999999995</v>
       </c>
@@ -7782,7 +7783,7 @@
       </c>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>851.49680000000001</v>
       </c>
@@ -7796,7 +7797,7 @@
         <v>1.996</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>861.18349999999998</v>
       </c>
@@ -7810,7 +7811,7 @@
         <v>-1.575</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>871.29040999999995</v>
       </c>
@@ -7825,7 +7826,7 @@
       </c>
       <c r="I75" s="2"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>875.23599999999999</v>
       </c>
@@ -7839,7 +7840,7 @@
         <v>-1.0189999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>885.30010000000004</v>
       </c>
@@ -7854,7 +7855,7 @@
       </c>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>888.41409999999996</v>
       </c>
@@ -7868,13 +7869,13 @@
         <v>-0.89900000000000002</v>
       </c>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B82" s="1"/>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B83" s="1"/>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B84" s="1"/>
       <c r="C84" s="6" t="s">
         <v>72</v>
@@ -7910,7 +7911,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B85" s="1"/>
       <c r="C85">
         <v>297</v>
@@ -7928,7 +7929,7 @@
         <v>47</v>
       </c>
       <c r="H85" s="5">
-        <f>G85-$G$85</f>
+        <f t="shared" ref="H85:H96" si="5">G85-$G$85</f>
         <v>0</v>
       </c>
       <c r="K85">
@@ -7949,7 +7950,7 @@
         <v>0.26794316814619712</v>
       </c>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B86" s="1"/>
       <c r="C86">
         <v>336</v>
@@ -7967,11 +7968,11 @@
         <v>53</v>
       </c>
       <c r="H86" s="5">
-        <f>G86-$G$85</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B87" s="1"/>
       <c r="C87">
         <v>381</v>
@@ -7989,11 +7990,11 @@
         <v>60</v>
       </c>
       <c r="H87" s="5">
-        <f>G87-$G$85</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B88" s="1"/>
       <c r="C88">
         <v>543</v>
@@ -8012,7 +8013,7 @@
         <v>71</v>
       </c>
       <c r="H88" s="5">
-        <f>G88-$G$85</f>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="K88" t="s">
@@ -8031,7 +8032,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B89" s="1"/>
       <c r="C89">
         <v>698</v>
@@ -8046,11 +8047,11 @@
         <v>22</v>
       </c>
       <c r="G89">
-        <f t="shared" ref="G89:G96" si="3">60+F89</f>
+        <f t="shared" ref="G89:G96" si="6">60+F89</f>
         <v>82</v>
       </c>
       <c r="H89" s="5">
-        <f>G89-$G$85</f>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="K89">
@@ -8071,7 +8072,7 @@
         <v>0.2566704969357847</v>
       </c>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B90" s="1"/>
       <c r="C90">
         <v>983</v>
@@ -8086,15 +8087,15 @@
         <v>57</v>
       </c>
       <c r="G90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>117</v>
       </c>
       <c r="H90" s="5">
-        <f>G90-$G$85</f>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B91" s="1"/>
       <c r="E91" s="3">
         <v>0.19930555555555554</v>
@@ -8103,15 +8104,15 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="H91" s="5">
-        <f>G91-$G$85</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B92" s="1"/>
       <c r="E92" s="3">
         <v>0.19930555555555554</v>
@@ -8120,15 +8121,15 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="H92" s="5">
-        <f>G92-$G$85</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B93" s="1"/>
       <c r="E93" s="3">
         <v>0.19930555555555554</v>
@@ -8137,18 +8138,18 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="H93" s="5">
-        <f>G93-$G$85</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="L93" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B94" s="1"/>
       <c r="E94" s="3">
         <v>0.19930555555555554</v>
@@ -8157,11 +8158,11 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="H94" s="5">
-        <f>G94-$G$85</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="L94">
@@ -8169,7 +8170,7 @@
         <v>1133.5991402877698</v>
       </c>
     </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B95" s="1"/>
       <c r="E95" s="3">
         <v>0.19930555555555554</v>
@@ -8178,15 +8179,15 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="H95" s="5">
-        <f>G95-$G$85</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B96" s="1"/>
       <c r="E96" s="3">
         <v>0.19930555555555554</v>
@@ -8195,51 +8196,51 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="H96" s="5">
-        <f>G96-$G$85</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B97" s="1"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B98" s="1"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B99" s="1"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B100" s="1"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B101" s="1"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B102" s="1"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B103" s="1"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B109" s="1"/>
     </row>
   </sheetData>
@@ -8262,18 +8263,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AH14" sqref="AH14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" customWidth="1"/>
+    <col min="1" max="2" width="14.1796875" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" customWidth="1"/>
+    <col min="17" max="17" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -8314,7 +8315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>129.01933500000001</v>
       </c>
@@ -8325,7 +8326,7 @@
         <v>129.01808650000001</v>
       </c>
       <c r="E2">
-        <f>(D2-A2)/A2*10^6</f>
+        <f t="shared" ref="E2:E11" si="0">(D2-A2)/A2*10^6</f>
         <v>-9.6768441722525544</v>
       </c>
       <c r="G2">
@@ -8335,7 +8336,7 @@
         <v>129.01933920522799</v>
       </c>
       <c r="I2">
-        <f>(H2-A2)/A2*10^6</f>
+        <f t="shared" ref="I2:I11" si="1">(H2-A2)/A2*10^6</f>
         <v>3.259378124175575E-2</v>
       </c>
       <c r="K2">
@@ -8359,7 +8360,7 @@
         <v>-0.12184534996883156</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>145.050635</v>
       </c>
@@ -8370,7 +8371,7 @@
         <v>145.04945960000001</v>
       </c>
       <c r="E3">
-        <f>(D3-A3)/A3*10^6</f>
+        <f t="shared" si="0"/>
         <v>-8.1033771413268365</v>
       </c>
       <c r="G3">
@@ -8380,7 +8381,7 @@
         <v>145.05063874520201</v>
       </c>
       <c r="I3">
-        <f>(H3-A3)/A3*10^6</f>
+        <f t="shared" si="1"/>
         <v>2.5819962856945617E-2</v>
       </c>
       <c r="K3">
@@ -8390,7 +8391,7 @@
         <v>145.05065748129499</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M11" si="0">(L3-K3)/K3*10^6</f>
+        <f t="shared" ref="M3:M11" si="2">(L3-K3)/K3*10^6</f>
         <v>0.15498929040151532</v>
       </c>
       <c r="O3">
@@ -8400,11 +8401,11 @@
         <v>145.05065748129499</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q11" si="1">(P3-O3)/O3*10^6</f>
+        <f t="shared" ref="Q3:Q11" si="3">(P3-O3)/O3*10^6</f>
         <v>0.15498929040151532</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>171.01214200000001</v>
       </c>
@@ -8416,7 +8417,7 @@
         <v>171.01105670000001</v>
       </c>
       <c r="E4">
-        <f>(D4-A4)/A4*10^6</f>
+        <f t="shared" si="0"/>
         <v>-6.3463329989734509</v>
       </c>
       <c r="G4" s="2">
@@ -8426,7 +8427,7 @@
         <v>171.012159180569</v>
       </c>
       <c r="I4">
-        <f>(H4-A4)/A4*10^6</f>
+        <f t="shared" si="1"/>
         <v>0.10046403014357917</v>
       </c>
       <c r="K4" s="2">
@@ -8436,7 +8437,7 @@
         <v>171.01215509048799</v>
       </c>
       <c r="M4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.6547126007468727E-2</v>
       </c>
       <c r="O4" s="2">
@@ -8446,11 +8447,11 @@
         <v>171.01215509048799</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.6547126007468727E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>171.10267000000002</v>
       </c>
@@ -8461,7 +8462,7 @@
         <v>171.10154779999999</v>
       </c>
       <c r="E5">
-        <f>(D5-A5)/A5*10^6</f>
+        <f t="shared" si="0"/>
         <v>-6.5586352336053038</v>
       </c>
       <c r="G5">
@@ -8471,7 +8472,7 @@
         <v>171.102672900817</v>
       </c>
       <c r="I5">
-        <f>(H5-A5)/A5*10^6</f>
+        <f t="shared" si="1"/>
         <v>1.6953662852836386E-2</v>
       </c>
       <c r="K5">
@@ -8481,7 +8482,7 @@
         <v>171.10266333742601</v>
       </c>
       <c r="M5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-3.8939041739922006E-2</v>
       </c>
       <c r="O5">
@@ -8491,11 +8492,11 @@
         <v>171.10266333742601</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-3.8939041739922006E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>187.09758500000001</v>
       </c>
@@ -8506,7 +8507,7 @@
         <v>187.09654409999999</v>
       </c>
       <c r="E6">
-        <f>(D6-A6)/A6*10^6</f>
+        <f t="shared" si="0"/>
         <v>-5.5634069248990219</v>
       </c>
       <c r="G6">
@@ -8516,7 +8517,7 @@
         <v>187.09757072858599</v>
       </c>
       <c r="I6">
-        <f>(H6-A6)/A6*10^6</f>
+        <f t="shared" si="1"/>
         <v>-7.627791677148292E-2</v>
       </c>
       <c r="K6">
@@ -8526,7 +8527,7 @@
         <v>187.09756859666101</v>
       </c>
       <c r="M6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-8.7672638872092465E-2</v>
       </c>
       <c r="O6">
@@ -8536,11 +8537,11 @@
         <v>187.09756859666101</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-8.7672638872092465E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>189.07685000000001</v>
       </c>
@@ -8551,7 +8552,7 @@
         <v>189.07585990000001</v>
       </c>
       <c r="E7">
-        <f>(D7-A7)/A7*10^6</f>
+        <f t="shared" si="0"/>
         <v>-5.236495107654183</v>
       </c>
       <c r="G7">
@@ -8561,7 +8562,7 @@
         <v>189.07684607527801</v>
       </c>
       <c r="I7">
-        <f>(H7-A7)/A7*10^6</f>
+        <f t="shared" si="1"/>
         <v>-2.0757284641182764E-2</v>
       </c>
       <c r="K7">
@@ -8571,7 +8572,7 @@
         <v>189.076831925503</v>
       </c>
       <c r="M7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-9.5593389707079965E-2</v>
       </c>
       <c r="O7">
@@ -8581,11 +8582,11 @@
         <v>189.076831925503</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-9.5593389707079965E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>201.113235</v>
       </c>
@@ -8596,7 +8597,7 @@
         <v>201.11232630000001</v>
       </c>
       <c r="E8">
-        <f>(D8-A8)/A8*10^6</f>
+        <f t="shared" si="0"/>
         <v>-4.5183500727664336</v>
       </c>
       <c r="G8">
@@ -8606,7 +8607,7 @@
         <v>201.11322662904701</v>
       </c>
       <c r="I8">
-        <f>(H8-A8)/A8*10^6</f>
+        <f t="shared" si="1"/>
         <v>-4.1623083619725512E-2</v>
       </c>
       <c r="K8">
@@ -8616,7 +8617,7 @@
         <v>201.113223626696</v>
       </c>
       <c r="M8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-5.655174312743072E-2</v>
       </c>
       <c r="O8">
@@ -8626,11 +8627,11 @@
         <v>201.113223626696</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.655174312743072E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>233.10306500000002</v>
       </c>
@@ -8641,7 +8642,7 @@
         <v>233.1026291</v>
       </c>
       <c r="E9">
-        <f>(D9-A9)/A9*10^6</f>
+        <f t="shared" si="0"/>
         <v>-1.86998828185116</v>
       </c>
       <c r="G9">
@@ -8651,7 +8652,7 @@
         <v>233.10308249532301</v>
       </c>
       <c r="I9">
-        <f>(H9-A9)/A9*10^6</f>
+        <f t="shared" si="1"/>
         <v>7.5054023819891499E-2</v>
       </c>
       <c r="K9">
@@ -8661,7 +8662,7 @@
         <v>233.103086188758</v>
       </c>
       <c r="M9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.0898667435954345E-2</v>
       </c>
       <c r="O9">
@@ -8671,11 +8672,11 @@
         <v>233.103086188758</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.0898667435954345E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>255.232955</v>
       </c>
@@ -8686,7 +8687,7 @@
         <v>255.2325439</v>
       </c>
       <c r="E10">
-        <f>(D10-A10)/A10*10^6</f>
+        <f t="shared" si="0"/>
         <v>-1.610685422687643</v>
       </c>
       <c r="G10">
@@ -8696,7 +8697,7 @@
         <v>255.23288694192399</v>
       </c>
       <c r="I10">
-        <f>(H10-A10)/A10*10^6</f>
+        <f t="shared" si="1"/>
         <v>-0.2666508171344964</v>
       </c>
       <c r="K10">
@@ -8706,7 +8707,7 @@
         <v>255.23313778514401</v>
       </c>
       <c r="M10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.71615024793915361</v>
       </c>
       <c r="O10">
@@ -8716,11 +8717,11 @@
         <v>255.23313778514401</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.71615024793915361</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>283.26425499999999</v>
       </c>
@@ -8731,7 +8732,7 @@
         <v>283.26380569999998</v>
       </c>
       <c r="E11">
-        <f>(D11-A11)/A11*10^6</f>
+        <f t="shared" si="0"/>
         <v>-1.5861514189775325</v>
       </c>
       <c r="G11">
@@ -8741,7 +8742,7 @@
         <v>283.26408177341</v>
       </c>
       <c r="I11">
-        <f>(H11-A11)/A11*10^6</f>
+        <f t="shared" si="1"/>
         <v>-0.61153706101460537</v>
       </c>
       <c r="K11">
@@ -8751,7 +8752,7 @@
         <v>283.26428907478498</v>
       </c>
       <c r="M11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.12029327523814945</v>
       </c>
       <c r="O11">
@@ -8761,11 +8762,11 @@
         <v>283.26428907478498</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.12029327523814945</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>301.12927999999999</v>
       </c>
@@ -8776,7 +8777,7 @@
         <v>317.09088000000003</v>
       </c>
       <c r="E12">
-        <f>(D12-A13)/A13*10^6</f>
+        <f t="shared" ref="E12:E22" si="4">(D12-A13)/A13*10^6</f>
         <v>-0.95240743710270614</v>
       </c>
       <c r="G12" s="2">
@@ -8796,7 +8797,7 @@
         <v>325.18423602062398</v>
       </c>
       <c r="M12">
-        <f t="shared" ref="M12:M19" si="2">(L12-K12)/K12*10^6</f>
+        <f t="shared" ref="M12:M19" si="5">(L12-K12)/K12*10^6</f>
         <v>-0.17214661766696263</v>
       </c>
       <c r="O12" s="2">
@@ -8806,11 +8807,11 @@
         <v>325.18429941465098</v>
       </c>
       <c r="Q12">
-        <f t="shared" ref="Q12:Q19" si="3">(P12-O12)/O12*10^6</f>
+        <f t="shared" ref="Q12:Q19" si="6">(P12-O12)/O12*10^6</f>
         <v>2.2801381220253682E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>317.091182</v>
       </c>
@@ -8822,7 +8823,7 @@
         <v>325.1837883</v>
       </c>
       <c r="E13">
-        <f>(D13-A14)/A14*10^6</f>
+        <f t="shared" si="4"/>
         <v>-1.5489678079759963</v>
       </c>
       <c r="G13" s="2">
@@ -8842,7 +8843,7 @@
         <v>339.19995026480001</v>
       </c>
       <c r="M13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.4365570334750106E-2</v>
       </c>
       <c r="O13" s="2">
@@ -8852,11 +8853,11 @@
         <v>339.19988719143902</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-0.16158187004241817</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>325.18429199999997</v>
       </c>
@@ -8868,7 +8869,7 @@
         <v>326.1818007</v>
       </c>
       <c r="E14">
-        <f>(D14-A15)/A15*10^6</f>
+        <f t="shared" si="4"/>
         <v>-0.74590249353373195</v>
       </c>
       <c r="G14" s="2">
@@ -8888,7 +8889,7 @@
         <v>361.117367672721</v>
       </c>
       <c r="M14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-8.1212589656592366E-2</v>
       </c>
       <c r="O14" s="2">
@@ -8898,11 +8899,11 @@
         <v>361.11727560581897</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-0.33616264964346831</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>326.18204399999996</v>
       </c>
@@ -8914,7 +8915,7 @@
         <v>339.19934160000003</v>
       </c>
       <c r="E15">
-        <f>(D15-A16)/A16*10^6</f>
+        <f t="shared" si="4"/>
         <v>-1.7700474722938702</v>
       </c>
       <c r="G15" s="2">
@@ -8934,7 +8935,7 @@
         <v>369.213166790873</v>
       </c>
       <c r="M15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.42466237310187066</v>
       </c>
       <c r="O15">
@@ -8944,11 +8945,11 @@
         <v>369.21304924185199</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.10628512790940244</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>339.19994199999996</v>
       </c>
@@ -8960,7 +8961,7 @@
         <v>361.11690320000002</v>
       </c>
       <c r="E16">
-        <f>(D16-A17)/A17*10^6</f>
+        <f t="shared" si="4"/>
         <v>-1.3674223509047818</v>
       </c>
       <c r="G16">
@@ -8970,7 +8971,7 @@
         <v>369.21315026200301</v>
       </c>
       <c r="I16">
-        <f>(H16-A18)/A18*10^6</f>
+        <f t="shared" ref="I16:I21" si="7">(H16-A18)/A18*10^6</f>
         <v>0.37989453030072867</v>
       </c>
       <c r="K16" s="2">
@@ -8980,7 +8981,7 @@
         <v>381.23172016990799</v>
       </c>
       <c r="M16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.21816108616792204</v>
       </c>
       <c r="O16" s="2">
@@ -8990,11 +8991,11 @@
         <v>381.23145101520799</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-0.48785246011252115</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>361.11739699999998</v>
       </c>
@@ -9006,7 +9007,7 @@
         <v>369.2126993</v>
       </c>
       <c r="E17">
-        <f>(D17-A18)/A18*10^6</f>
+        <f t="shared" si="4"/>
         <v>-0.84151964200827356</v>
       </c>
       <c r="G17" s="2">
@@ -9016,7 +9017,7 @@
         <v>381.23147716725299</v>
       </c>
       <c r="I17">
-        <f>(H17-A19)/A19*10^6</f>
+        <f t="shared" si="7"/>
         <v>-0.41925362817627687</v>
       </c>
       <c r="K17">
@@ -9026,7 +9027,7 @@
         <v>401.08781160571698</v>
       </c>
       <c r="M17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.0034051114798599E-3</v>
       </c>
       <c r="O17">
@@ -9036,11 +9037,11 @@
         <v>401.08760938055701</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-0.50018833276988062</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>369.21301</v>
       </c>
@@ -9051,7 +9052,7 @@
         <v>381.23106949999999</v>
       </c>
       <c r="E18">
-        <f>(D18-A19)/A19*10^6</f>
+        <f t="shared" si="4"/>
         <v>-1.4885962887395039</v>
       </c>
       <c r="G18">
@@ -9061,7 +9062,7 @@
         <v>401.087666059951</v>
       </c>
       <c r="I18">
-        <f>(H18-A20)/A20*10^6</f>
+        <f t="shared" si="7"/>
         <v>-0.35887415522742749</v>
       </c>
       <c r="K18">
@@ -9071,7 +9072,7 @@
         <v>415.21877507117</v>
       </c>
       <c r="M18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.68655702212631575</v>
       </c>
       <c r="O18">
@@ -9081,11 +9082,11 @@
         <v>415.218505859375</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.8195252397560935E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>381.23163699999998</v>
       </c>
@@ -9097,7 +9098,7 @@
         <v>401.08731289999997</v>
       </c>
       <c r="E19">
-        <f>(D19-A20)/A20*10^6</f>
+        <f t="shared" si="4"/>
         <v>-1.2393794765745578</v>
       </c>
       <c r="G19">
@@ -9107,7 +9108,7 @@
         <v>415.21875815311699</v>
       </c>
       <c r="I19">
-        <f>(H19-A21)/A21*10^6</f>
+        <f t="shared" si="7"/>
         <v>0.64581208081476571</v>
       </c>
       <c r="K19">
@@ -9117,7 +9118,7 @@
         <v>459.245082882171</v>
       </c>
       <c r="M19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.82283402930289495</v>
       </c>
       <c r="O19">
@@ -9127,11 +9128,11 @@
         <v>459.24461593503702</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-0.19393792016716049</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>401.08780999999999</v>
       </c>
@@ -9142,7 +9143,7 @@
         <v>415.21826090000002</v>
       </c>
       <c r="E20">
-        <f>(D20-A21)/A21*10^6</f>
+        <f t="shared" si="4"/>
         <v>-0.5517577022061475</v>
       </c>
       <c r="G20">
@@ -9152,7 +9153,7 @@
         <v>459.244950692261</v>
       </c>
       <c r="I20">
-        <f>(H20-A22)/A22*10^6</f>
+        <f t="shared" si="7"/>
         <v>0.53499203882234259</v>
       </c>
       <c r="K20" s="8">
@@ -9162,7 +9163,7 @@
         <v>529.3047444</v>
       </c>
       <c r="M20" s="8">
-        <f t="shared" ref="M20:M23" si="4">(L20-K20)/K20*10^6</f>
+        <f t="shared" ref="M20:M23" si="8">(L20-K20)/K20*10^6</f>
         <v>-0.85319396717092755</v>
       </c>
       <c r="O20" s="8">
@@ -9172,11 +9173,11 @@
         <v>529.30379310000001</v>
       </c>
       <c r="Q20" s="8">
-        <f t="shared" ref="Q20:Q23" si="5">(P20-O20)/O20*10^6</f>
+        <f t="shared" ref="Q20:Q23" si="9">(P20-O20)/O20*10^6</f>
         <v>-2.6504557495717762</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>415.21848999999997</v>
       </c>
@@ -9187,7 +9188,7 @@
         <v>459.24449390000001</v>
       </c>
       <c r="E21">
-        <f>(D21-A22)/A22*10^6</f>
+        <f t="shared" si="4"/>
         <v>-0.45966779289160986</v>
       </c>
       <c r="G21">
@@ -9197,7 +9198,7 @@
         <v>503.271450915294</v>
       </c>
       <c r="I21">
-        <f>(H21-A23)/A23*10^6</f>
+        <f t="shared" si="7"/>
         <v>1.0549294086119116</v>
       </c>
       <c r="K21">
@@ -9207,7 +9208,7 @@
         <v>549.52533270000004</v>
       </c>
       <c r="M21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.20508612879523835</v>
       </c>
       <c r="O21">
@@ -9217,11 +9218,11 @@
         <v>549.52421089999996</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-1.8363124444642569</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>459.24470499999995</v>
       </c>
@@ -9232,7 +9233,7 @@
         <v>503.27086539999999</v>
       </c>
       <c r="E22">
-        <f>(D22-A23)/A23*10^6</f>
+        <f t="shared" si="4"/>
         <v>-0.10849027398319072</v>
       </c>
       <c r="G22" s="8">
@@ -9251,7 +9252,7 @@
         <v>567.53652139999997</v>
       </c>
       <c r="M22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.2975393261778334</v>
       </c>
       <c r="O22">
@@ -9261,11 +9262,11 @@
         <v>567.53510900000003</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-1.1911143186942474</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>503.27091999999999</v>
       </c>
@@ -9294,7 +9295,7 @@
         <v>573.33092529999999</v>
       </c>
       <c r="M23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-0.8488981936513661</v>
       </c>
       <c r="O23">
@@ -9304,11 +9305,11 @@
         <v>573.33014060000005</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.2175655708718045</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>547.29713500000003</v>
       </c>
@@ -9331,7 +9332,7 @@
         <v>2.5687827918976676</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>591.32335</v>
       </c>
@@ -9354,7 +9355,7 @@
         <v>7.9443510662897801E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C26">
         <v>531.30221999999992</v>
       </c>
@@ -9374,7 +9375,7 @@
         <v>-0.57031049454256455</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C27">
         <v>537.48883499999999</v>
       </c>
@@ -9394,7 +9395,7 @@
         <v>0.6498268651845035</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -9417,7 +9418,7 @@
         <v>-1.2242482886447559</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>505.247682</v>
       </c>
@@ -9440,7 +9441,7 @@
         <v>0.20824510199291063</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>507.47826999999995</v>
       </c>
@@ -9463,7 +9464,7 @@
         <v>3.6043122328001855</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>511.473184</v>
       </c>
@@ -9486,7 +9487,7 @@
         <v>-4.7151180815911242E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>513.31028100000003</v>
       </c>
@@ -9500,7 +9501,7 @@
         <v>0.56730195388688698</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>519.26333199999999</v>
       </c>
@@ -9514,112 +9515,112 @@
         <v>-1.2576142996701383</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>529.30519600000002</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>531.30221999999992</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>535.14571999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>537.48883499999999</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>549.52521999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>553.28406699999994</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>563.28885300000002</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>567.53578499999992</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>573.331412</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>581.52628299999992</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>613.18078700000001</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>665.333125</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>679.37577999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>681.295027</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>719.20152199999995</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>723.40199499999994</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>725.26372700000002</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>727.18797999999992</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>737.59369500000003</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>801.67663499999992</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>851.49510499999997</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C55">
         <v>-1</v>
       </c>
@@ -9627,7 +9628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C56">
         <v>-1</v>
       </c>
@@ -9635,7 +9636,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>0</v>
       </c>
@@ -9643,7 +9644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>900</v>
       </c>

--- a/products analysis/reference compounds analysis/fatacidref list and analysis.xlsx
+++ b/products analysis/reference compounds analysis/fatacidref list and analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Steven\Target Decoy\products analysis\reference compounds analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADF7F14-366B-4053-8C4A-76E1D12FDD86}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246F86A8-21ED-4650-AA21-869A3ED8391A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8263,7 +8263,7 @@
   <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/products analysis/reference compounds analysis/fatacidref list and analysis.xlsx
+++ b/products analysis/reference compounds analysis/fatacidref list and analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skutarna\Documents\MSc 2\NTA\TargetDecoy\products analysis\reference compounds analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A719D6-D022-4262-96BB-C705767A1497}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFE1E2E-40A5-4812-B62A-93A8DE2F7675}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="109">
   <si>
     <t>Sample 100 m/z</t>
   </si>
@@ -347,6 +347,15 @@
   </si>
   <si>
     <t>Distance</t>
+  </si>
+  <si>
+    <t>CPs Ref mz</t>
+  </si>
+  <si>
+    <t>raw ppm</t>
+  </si>
+  <si>
+    <t>cal ppm</t>
   </si>
 </sst>
 </file>
@@ -2297,18 +2306,10 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Calibration Testing'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Raw Data</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Humic Acids Raw</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -2318,7 +2319,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="8"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -2333,10 +2334,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Calibration Testing'!$C$2:$C$33</c:f>
+              <c:f>'Calibration Testing'!$C$2:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>129.01933500000001</c:v>
                 </c:pt>
@@ -2399,49 +2400,16 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>503.27091999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>507.47826999999995</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>511.473184</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>529.30519600000002</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>531.30221999999992</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>537.48883499999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>549.52521999999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>567.53578499999992</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>573.331412</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>581.52628299999992</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>681.295027</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>801.67663499999992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Calibration Testing'!$E$2:$E$33</c:f>
+              <c:f>'Calibration Testing'!$E$2:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>-9.6768441722525544</c:v>
                 </c:pt>
@@ -2504,39 +2472,6 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>-0.10849027398319072</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-2.1127998248146218</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-1.197521236985043</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-2.3275796447551409</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-0.24016462782322281</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-1.0323935379929525</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-1.649423842571883</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-0.82144599902473903</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-1.9205296918705279</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-1.1144810112068735</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.56730195388688698</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-1.2576142996701383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2552,18 +2487,10 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Calibration Testing'!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cal Data original code</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Humic Acids Calibrated - Original</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -2573,7 +2500,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="8"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -2588,10 +2515,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Calibration Testing'!$G$2:$G$31</c:f>
+              <c:f>'Calibration Testing'!$G$2:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>129.01933500000001</c:v>
                 </c:pt>
@@ -2651,46 +2578,16 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>503.27091999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>507.47826999999995</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>529.30519600000002</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>531.30221999999992</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>537.48883499999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>549.52521999999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>567.53578499999992</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>573.331412</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>581.52628299999992</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>681.295027</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>801.67663499999992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Calibration Testing'!$I$2:$I$31</c:f>
+              <c:f>'Calibration Testing'!$I$2:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>3.259378124175575E-2</c:v>
                 </c:pt>
@@ -2750,36 +2647,6 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1.0549294086119116</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-0.85047976528380953</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-1.6225043822543552</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.5687827918976676</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.9443510662897801E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-0.57031049454256455</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.6498268651845035</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-1.2242482886447559</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.20824510199291063</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.6043122328001855</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-4.7151180815911242E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2942,23 +2809,15 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:idx val="5"/>
+          <c:order val="5"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Calibration Testing'!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cal Data with higher lockmasses and 1/x fit option</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Humic Acids Calibrated - Current</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2966,10 +2825,10 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="8"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:noFill/>
@@ -2979,10 +2838,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Calibration Testing'!$K$2:$K$23</c:f>
+              <c:f>'Calibration Testing'!$O$2:$O$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>129.01933500000001</c:v>
                 </c:pt>
@@ -3036,28 +2895,16 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>459.24470499999995</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>529.30519600000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>549.52521999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>567.53578499999992</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>573.331412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Calibration Testing'!$M$2:$M$23</c:f>
+              <c:f>'Calibration Testing'!$Q$2:$Q$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>-0.12184534996883156</c:v>
                 </c:pt>
@@ -3089,40 +2936,28 @@
                   <c:v>0.12029327523814945</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.17214661766696263</c:v>
+                  <c:v>2.2801381220253682E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.4365570334750106E-2</c:v>
+                  <c:v>-0.16158187004241817</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-8.1212589656592366E-2</c:v>
+                  <c:v>-0.33616264964346831</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.42466237310187066</c:v>
+                  <c:v>0.10628512790940244</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.21816108616792204</c:v>
+                  <c:v>-0.48785246011252115</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.0034051114798599E-3</c:v>
+                  <c:v>-0.50018833276988062</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.68655702212631575</c:v>
+                  <c:v>3.8195252397560935E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.82283402930289495</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.85319396717092755</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.20508612879523835</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.2975393261778334</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-0.8488981936513661</c:v>
+                  <c:v>-0.19393792016716049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3130,39 +2965,32 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3B50-4486-B0BC-DB857FFEF947}"/>
+              <c16:uniqueId val="{00000003-3B50-4486-B0BC-DB857FFEF947}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:idx val="6"/>
+          <c:order val="6"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Calibration Testing'!$P$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cal Data as above plus high range linear fit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>CPs Raw</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="7030A0"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="square"/>
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7030A0"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:noFill/>
@@ -3172,150 +3000,126 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Calibration Testing'!$O$2:$O$23</c:f>
+              <c:f>'Calibration Testing'!$U$2:$U$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>129.01933500000001</c:v>
+                  <c:v>348.94374160000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>145.050635</c:v>
+                  <c:v>362.9593916</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>171.01214200000001</c:v>
+                  <c:v>376.9750416</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>171.10267000000002</c:v>
+                  <c:v>382.90476960000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>187.09758500000001</c:v>
+                  <c:v>390.99069159999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>189.07685000000001</c:v>
+                  <c:v>396.9204196</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>201.113235</c:v>
+                  <c:v>410.9360696</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>233.10306500000002</c:v>
+                  <c:v>418.86284760000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>255.232955</c:v>
+                  <c:v>424.95171959999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>283.26425499999999</c:v>
+                  <c:v>432.8784976</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>325.18429199999997</c:v>
+                  <c:v>438.96736959999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>339.19994199999996</c:v>
+                  <c:v>446.8941476</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>361.11739699999998</c:v>
+                  <c:v>460.90979759999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>369.21301</c:v>
+                  <c:v>461.06894160000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>381.23163699999998</c:v>
+                  <c:v>474.92544759999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>401.08780999999999</c:v>
+                  <c:v>480.8551756</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>415.21848999999997</c:v>
+                  <c:v>488.94109759999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>459.24470499999995</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>529.30519600000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>549.52521999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>567.53578499999992</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>573.331412</c:v>
+                  <c:v>494.87082559999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Calibration Testing'!$Q$2:$Q$23</c:f>
+              <c:f>'Calibration Testing'!$V$2:$V$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>-0.12184534996883156</c:v>
+                  <c:v>-4.5892964000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15498929040151532</c:v>
+                  <c:v>-0.44931851499999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.6547126007468727E-2</c:v>
+                  <c:v>-9.4161364999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.8939041739922006E-2</c:v>
+                  <c:v>-0.35787394500000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8.7672638872092465E-2</c:v>
+                  <c:v>-0.38888193999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-9.5593389707079965E-2</c:v>
+                  <c:v>-1.561510272</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5.655174312743072E-2</c:v>
+                  <c:v>-1.4205619789999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.0898667435954345E-2</c:v>
+                  <c:v>0.161005119</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.71615024793915361</c:v>
+                  <c:v>3.7449110000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.12029327523814945</c:v>
+                  <c:v>-0.60695257499999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.2801381220253682E-2</c:v>
+                  <c:v>-0.88758198899999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.16158187004241817</c:v>
+                  <c:v>-0.16584167</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.33616264964346831</c:v>
+                  <c:v>4.9807231E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.10628512790940244</c:v>
+                  <c:v>-1.26277211</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.48785246011252115</c:v>
+                  <c:v>-0.454105812</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.50018833276988062</c:v>
+                  <c:v>-0.46926567400000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.8195252397560935E-2</c:v>
+                  <c:v>6.9521251000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.19393792016716049</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-2.6504557495717762</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-1.8363124444642569</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-1.1911143186942474</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-2.2175655708718045</c:v>
+                  <c:v>0.78852963700000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3323,7 +3127,169 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3B50-4486-B0BC-DB857FFEF947}"/>
+              <c16:uniqueId val="{00000003-957D-4B4F-A19F-746FFA06FF76}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>CPs Calibrated</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Calibration Testing'!$U$2:$U$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>348.94374160000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>362.9593916</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>376.9750416</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>382.90476960000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>390.99069159999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>396.9204196</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>410.9360696</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>418.86284760000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>424.95171959999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>432.8784976</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>438.96736959999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>446.8941476</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>460.90979759999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>461.06894160000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>474.92544759999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>480.8551756</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>488.94109759999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>494.87082559999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Calibration Testing'!$W$2:$W$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>4.1564050999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47556004400000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47251553200000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.11877341299999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.31083000999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.86953729800000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.82645344700000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.161005119</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.50644448099999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.18395750899999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.47045424499999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.175599119</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.18223044399999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.99801709900000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.261332958</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.34233523999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.13193690499999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.85019740300000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-957D-4B4F-A19F-746FFA06FF76}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3337,12 +3303,229 @@
         </c:dLbls>
         <c:axId val="1943780399"/>
         <c:axId val="1643439935"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Calibration Testing'!$L$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Cal Data with higher lockmasses and 1/x fit option</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="8"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Calibration Testing'!$K$2:$K$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="22"/>
+                      <c:pt idx="0">
+                        <c:v>129.01933500000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>145.050635</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>171.01214200000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>171.10267000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>187.09758500000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>189.07685000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>201.113235</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>233.10306500000002</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>255.232955</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>283.26425499999999</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>325.18429199999997</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>339.19994199999996</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>361.11739699999998</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>369.21301</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>381.23163699999998</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>401.08780999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>415.21848999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>459.24470499999995</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>529.30519600000002</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>549.52521999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>567.53578499999992</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>573.331412</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Calibration Testing'!$M$2:$M$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="22"/>
+                      <c:pt idx="0">
+                        <c:v>-0.12184534996883156</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.15498929040151532</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7.6547126007468727E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-3.8939041739922006E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-8.7672638872092465E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-9.5593389707079965E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>-5.655174312743072E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>9.0898667435954345E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.71615024793915361</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.12029327523814945</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>-0.17214661766696263</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2.4365570334750106E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>-8.1212589656592366E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.42466237310187066</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.21816108616792204</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>4.0034051114798599E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.68655702212631575</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.82283402930289495</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>-0.85319396717092755</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.20508612879523835</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>1.2975393261778334</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>-0.8488981936513661</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-3B50-4486-B0BC-DB857FFEF947}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="1943780399"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="900"/>
+          <c:max val="550"/>
           <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3469,8 +3652,8 @@
         <c:axId val="1643439935"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4"/>
-          <c:min val="-10"/>
+          <c:max val="3"/>
+          <c:min val="-3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3587,6 +3770,53 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="8"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -5380,16 +5610,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>182031</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>129647</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>63499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>167747</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>148165</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8261,10 +8491,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:W62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AH14" sqref="AH14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8274,7 +8504,7 @@
     <col min="17" max="17" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -8314,8 +8544,17 @@
       <c r="Q1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="U1" t="s">
+        <v>106</v>
+      </c>
+      <c r="V1" t="s">
+        <v>107</v>
+      </c>
+      <c r="W1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>129.01933500000001</v>
       </c>
@@ -8359,8 +8598,17 @@
         <f>(P2-O2)/O2*10^6</f>
         <v>-0.12184534996883156</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="U2">
+        <v>348.94374160000001</v>
+      </c>
+      <c r="V2">
+        <v>-4.5892964000000001E-2</v>
+      </c>
+      <c r="W2">
+        <v>4.1564050999999998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>145.050635</v>
       </c>
@@ -8404,8 +8652,17 @@
         <f t="shared" ref="Q3:Q11" si="3">(P3-O3)/O3*10^6</f>
         <v>0.15498929040151532</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="U3">
+        <v>362.9593916</v>
+      </c>
+      <c r="V3">
+        <v>-0.44931851499999997</v>
+      </c>
+      <c r="W3">
+        <v>0.47556004400000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>171.01214200000001</v>
       </c>
@@ -8450,8 +8707,17 @@
         <f t="shared" si="3"/>
         <v>7.6547126007468727E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="U4">
+        <v>376.9750416</v>
+      </c>
+      <c r="V4">
+        <v>-9.4161364999999997E-2</v>
+      </c>
+      <c r="W4">
+        <v>0.47251553200000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>171.10267000000002</v>
       </c>
@@ -8495,8 +8761,17 @@
         <f t="shared" si="3"/>
         <v>-3.8939041739922006E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="U5">
+        <v>382.90476960000001</v>
+      </c>
+      <c r="V5">
+        <v>-0.35787394500000003</v>
+      </c>
+      <c r="W5">
+        <v>-0.11877341299999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>187.09758500000001</v>
       </c>
@@ -8540,8 +8815,17 @@
         <f t="shared" si="3"/>
         <v>-8.7672638872092465E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="U6">
+        <v>390.99069159999999</v>
+      </c>
+      <c r="V6">
+        <v>-0.38888193999999998</v>
+      </c>
+      <c r="W6">
+        <v>-0.31083000999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>189.07685000000001</v>
       </c>
@@ -8585,8 +8869,17 @@
         <f t="shared" si="3"/>
         <v>-9.5593389707079965E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="U7">
+        <v>396.9204196</v>
+      </c>
+      <c r="V7">
+        <v>-1.561510272</v>
+      </c>
+      <c r="W7">
+        <v>-0.86953729800000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>201.113235</v>
       </c>
@@ -8630,8 +8923,17 @@
         <f t="shared" si="3"/>
         <v>-5.655174312743072E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="U8">
+        <v>410.9360696</v>
+      </c>
+      <c r="V8">
+        <v>-1.4205619789999999</v>
+      </c>
+      <c r="W8">
+        <v>-0.82645344700000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>233.10306500000002</v>
       </c>
@@ -8675,8 +8977,17 @@
         <f t="shared" si="3"/>
         <v>9.0898667435954345E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="U9">
+        <v>418.86284760000001</v>
+      </c>
+      <c r="V9">
+        <v>0.161005119</v>
+      </c>
+      <c r="W9">
+        <v>0.161005119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>255.232955</v>
       </c>
@@ -8720,8 +9031,17 @@
         <f t="shared" si="3"/>
         <v>0.71615024793915361</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="U10">
+        <v>424.95171959999999</v>
+      </c>
+      <c r="V10">
+        <v>3.7449110000000001E-3</v>
+      </c>
+      <c r="W10">
+        <v>0.50644448099999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>283.26425499999999</v>
       </c>
@@ -8765,8 +9085,17 @@
         <f t="shared" si="3"/>
         <v>0.12029327523814945</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="U11">
+        <v>432.8784976</v>
+      </c>
+      <c r="V11">
+        <v>-0.60695257499999999</v>
+      </c>
+      <c r="W11">
+        <v>-0.18395750899999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>301.12927999999999</v>
       </c>
@@ -8810,8 +9139,17 @@
         <f t="shared" ref="Q12:Q19" si="6">(P12-O12)/O12*10^6</f>
         <v>2.2801381220253682E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="U12">
+        <v>438.96736959999998</v>
+      </c>
+      <c r="V12">
+        <v>-0.88758198899999996</v>
+      </c>
+      <c r="W12">
+        <v>-0.47045424499999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>317.091182</v>
       </c>
@@ -8856,8 +9194,17 @@
         <f t="shared" si="6"/>
         <v>-0.16158187004241817</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="U13">
+        <v>446.8941476</v>
+      </c>
+      <c r="V13">
+        <v>-0.16584167</v>
+      </c>
+      <c r="W13">
+        <v>0.175599119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>325.18429199999997</v>
       </c>
@@ -8902,8 +9249,17 @@
         <f t="shared" si="6"/>
         <v>-0.33616264964346831</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="U14">
+        <v>460.90979759999999</v>
+      </c>
+      <c r="V14">
+        <v>4.9807231E-2</v>
+      </c>
+      <c r="W14">
+        <v>0.18223044399999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>326.18204399999996</v>
       </c>
@@ -8948,8 +9304,17 @@
         <f t="shared" si="6"/>
         <v>0.10628512790940244</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="U15">
+        <v>461.06894160000002</v>
+      </c>
+      <c r="V15">
+        <v>-1.26277211</v>
+      </c>
+      <c r="W15">
+        <v>-0.99801709900000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>339.19994199999996</v>
       </c>
@@ -8994,8 +9359,17 @@
         <f t="shared" si="6"/>
         <v>-0.48785246011252115</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="U16">
+        <v>474.92544759999998</v>
+      </c>
+      <c r="V16">
+        <v>-0.454105812</v>
+      </c>
+      <c r="W16">
+        <v>-0.261332958</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>361.11739699999998</v>
       </c>
@@ -9040,8 +9414,17 @@
         <f t="shared" si="6"/>
         <v>-0.50018833276988062</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="U17">
+        <v>480.8551756</v>
+      </c>
+      <c r="V17">
+        <v>-0.46926567400000002</v>
+      </c>
+      <c r="W17">
+        <v>-0.34233523999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>369.21301</v>
       </c>
@@ -9085,8 +9468,17 @@
         <f t="shared" si="6"/>
         <v>3.8195252397560935E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="U18">
+        <v>488.94109759999998</v>
+      </c>
+      <c r="V18">
+        <v>6.9521251000000006E-2</v>
+      </c>
+      <c r="W18">
+        <v>0.13193690499999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>381.23163699999998</v>
       </c>
@@ -9131,8 +9523,17 @@
         <f t="shared" si="6"/>
         <v>-0.19393792016716049</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="U19">
+        <v>494.87082559999999</v>
+      </c>
+      <c r="V19">
+        <v>0.78852963700000001</v>
+      </c>
+      <c r="W19">
+        <v>0.85019740300000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>401.08780999999999</v>
       </c>
@@ -9177,7 +9578,7 @@
         <v>-2.6504557495717762</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>415.21848999999997</v>
       </c>
@@ -9222,7 +9623,7 @@
         <v>-1.8363124444642569</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>459.24470499999995</v>
       </c>
@@ -9266,7 +9667,7 @@
         <v>-1.1911143186942474</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>503.27091999999999</v>
       </c>
@@ -9309,7 +9710,7 @@
         <v>-2.2175655708718045</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>547.29713500000003</v>
       </c>
@@ -9332,7 +9733,7 @@
         <v>2.5687827918976676</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>591.32335</v>
       </c>
@@ -9355,7 +9756,7 @@
         <v>7.9443510662897801E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="C26">
         <v>531.30221999999992</v>
       </c>
@@ -9375,7 +9776,7 @@
         <v>-0.57031049454256455</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="C27">
         <v>537.48883499999999</v>
       </c>
@@ -9395,7 +9796,7 @@
         <v>0.6498268651845035</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -9418,7 +9819,7 @@
         <v>-1.2242482886447559</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>505.247682</v>
       </c>
@@ -9441,7 +9842,7 @@
         <v>0.20824510199291063</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>507.47826999999995</v>
       </c>
@@ -9464,7 +9865,7 @@
         <v>3.6043122328001855</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>511.473184</v>
       </c>
@@ -9487,7 +9888,7 @@
         <v>-4.7151180815911242E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>513.31028100000003</v>
       </c>
